--- a/data/남성사망률추이.xlsx
+++ b/data/남성사망률추이.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\IITPMainProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94026F1A-F161-4135-B268-F83AE1309A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D940C29-D86F-48C9-A68B-DCA64607B99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2565" windowWidth="19890" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,24 +73,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,24 +93,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,7 +450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -784,7 +771,7 @@
       <c r="A2" s="3">
         <v>1950</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.18999031999999999</v>
       </c>
       <c r="C2" s="4">
@@ -799,19 +786,19 @@
       <c r="F2" s="4">
         <v>2.8997187000000001E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
       <c r="L2" s="4">
@@ -829,19 +816,19 @@
       <c r="P2" s="4">
         <v>4.8324702000000002E-3</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
       <c r="V2" s="4">
@@ -859,19 +846,19 @@
       <c r="Z2" s="4">
         <v>1.12135E-2</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="4">
         <v>1.2139453E-2</v>
       </c>
       <c r="AF2" s="4">
@@ -889,19 +876,19 @@
       <c r="AJ2" s="4">
         <v>1.3294805E-2</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AK2" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AM2" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AO2" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
       <c r="AP2" s="4">
@@ -919,19 +906,19 @@
       <c r="AT2" s="4">
         <v>1.8056309999999999E-2</v>
       </c>
-      <c r="AU2" s="6">
+      <c r="AU2" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AV2" s="6">
+      <c r="AV2" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AW2" s="6">
+      <c r="AW2" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AX2" s="6">
+      <c r="AX2" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AY2" s="6">
+      <c r="AY2" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
       <c r="AZ2" s="4">
@@ -949,19 +936,19 @@
       <c r="BD2" s="4">
         <v>2.5787995000000001E-2</v>
       </c>
-      <c r="BE2" s="6">
+      <c r="BE2" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BF2" s="6">
+      <c r="BF2" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BG2" s="6">
+      <c r="BG2" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BH2" s="6">
+      <c r="BH2" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BI2" s="6">
+      <c r="BI2" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
       <c r="BJ2" s="4">
@@ -979,19 +966,19 @@
       <c r="BN2" s="4">
         <v>6.3821943000000006E-2</v>
       </c>
-      <c r="BO2" s="6">
+      <c r="BO2" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BP2" s="6">
+      <c r="BP2" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BQ2" s="6">
+      <c r="BQ2" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BR2" s="6">
+      <c r="BR2" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BS2" s="6">
+      <c r="BS2" s="4">
         <v>0.12903529</v>
       </c>
       <c r="BT2" s="4">
@@ -1009,19 +996,19 @@
       <c r="BX2" s="4">
         <v>0.22060627999999999</v>
       </c>
-      <c r="BY2" s="6">
+      <c r="BY2" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="BZ2" s="6">
+      <c r="BZ2" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CA2" s="6">
+      <c r="CA2" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CB2" s="6">
+      <c r="CB2" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CC2" s="6">
+      <c r="CC2" s="4">
         <v>0.30650785000000003</v>
       </c>
       <c r="CD2" s="4">
@@ -1039,19 +1026,19 @@
       <c r="CH2" s="4">
         <v>0.43375095000000002</v>
       </c>
-      <c r="CI2" s="6">
+      <c r="CI2" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CJ2" s="6">
+      <c r="CJ2" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CK2" s="6">
+      <c r="CK2" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CL2" s="6">
+      <c r="CL2" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CM2" s="6">
+      <c r="CM2" s="4">
         <v>0.59405808999999998</v>
       </c>
       <c r="CN2" s="4">
@@ -1069,19 +1056,19 @@
       <c r="CR2" s="4">
         <v>0.79229609000000001</v>
       </c>
-      <c r="CS2" s="6">
+      <c r="CS2" s="4">
         <v>0.8</v>
       </c>
-      <c r="CT2" s="6">
+      <c r="CT2" s="4">
         <v>0.8</v>
       </c>
-      <c r="CU2" s="6">
+      <c r="CU2" s="4">
         <v>0.8</v>
       </c>
-      <c r="CV2" s="6">
+      <c r="CV2" s="4">
         <v>0.8</v>
       </c>
-      <c r="CW2" s="6">
+      <c r="CW2" s="4">
         <v>0.8</v>
       </c>
       <c r="CX2" s="4">
@@ -1092,7 +1079,7 @@
       <c r="A3" s="3">
         <v>1951</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.18999031999999999</v>
       </c>
       <c r="C3" s="4">
@@ -1107,19 +1094,19 @@
       <c r="F3" s="4">
         <v>2.8997187000000001E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
       <c r="L3" s="4">
@@ -1137,19 +1124,19 @@
       <c r="P3" s="4">
         <v>4.8324702000000002E-3</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
       <c r="V3" s="4">
@@ -1167,19 +1154,19 @@
       <c r="Z3" s="4">
         <v>1.12135E-2</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="4">
         <v>1.2139453E-2</v>
       </c>
       <c r="AF3" s="4">
@@ -1197,19 +1184,19 @@
       <c r="AJ3" s="4">
         <v>1.3294805E-2</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AK3" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="AO3" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
       <c r="AP3" s="4">
@@ -1227,19 +1214,19 @@
       <c r="AT3" s="4">
         <v>1.8056309999999999E-2</v>
       </c>
-      <c r="AU3" s="6">
+      <c r="AU3" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AV3" s="6">
+      <c r="AV3" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="AW3" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AX3" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AY3" s="6">
+      <c r="AY3" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
       <c r="AZ3" s="4">
@@ -1257,19 +1244,19 @@
       <c r="BD3" s="4">
         <v>2.5787995000000001E-2</v>
       </c>
-      <c r="BE3" s="6">
+      <c r="BE3" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BF3" s="6">
+      <c r="BF3" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BG3" s="6">
+      <c r="BG3" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BH3" s="6">
+      <c r="BH3" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BI3" s="6">
+      <c r="BI3" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
       <c r="BJ3" s="4">
@@ -1287,19 +1274,19 @@
       <c r="BN3" s="4">
         <v>6.3821943000000006E-2</v>
       </c>
-      <c r="BO3" s="6">
+      <c r="BO3" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BP3" s="6">
+      <c r="BP3" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BQ3" s="6">
+      <c r="BQ3" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BR3" s="6">
+      <c r="BR3" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BS3" s="6">
+      <c r="BS3" s="4">
         <v>0.12903529</v>
       </c>
       <c r="BT3" s="4">
@@ -1317,19 +1304,19 @@
       <c r="BX3" s="4">
         <v>0.22060627999999999</v>
       </c>
-      <c r="BY3" s="6">
+      <c r="BY3" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="BZ3" s="6">
+      <c r="BZ3" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CA3" s="6">
+      <c r="CA3" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CB3" s="6">
+      <c r="CB3" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CC3" s="6">
+      <c r="CC3" s="4">
         <v>0.30650785000000003</v>
       </c>
       <c r="CD3" s="4">
@@ -1347,19 +1334,19 @@
       <c r="CH3" s="4">
         <v>0.43375095000000002</v>
       </c>
-      <c r="CI3" s="6">
+      <c r="CI3" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CJ3" s="6">
+      <c r="CJ3" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CK3" s="6">
+      <c r="CK3" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CL3" s="6">
+      <c r="CL3" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CM3" s="6">
+      <c r="CM3" s="4">
         <v>0.59405808999999998</v>
       </c>
       <c r="CN3" s="4">
@@ -1377,19 +1364,19 @@
       <c r="CR3" s="4">
         <v>0.79229609000000001</v>
       </c>
-      <c r="CS3" s="6">
+      <c r="CS3" s="4">
         <v>0.8</v>
       </c>
-      <c r="CT3" s="6">
+      <c r="CT3" s="4">
         <v>0.8</v>
       </c>
-      <c r="CU3" s="6">
+      <c r="CU3" s="4">
         <v>0.8</v>
       </c>
-      <c r="CV3" s="6">
+      <c r="CV3" s="4">
         <v>0.8</v>
       </c>
-      <c r="CW3" s="6">
+      <c r="CW3" s="4">
         <v>0.8</v>
       </c>
       <c r="CX3" s="4">
@@ -1400,7 +1387,7 @@
       <c r="A4" s="3">
         <v>1952</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.18999031999999999</v>
       </c>
       <c r="C4" s="4">
@@ -1415,19 +1402,19 @@
       <c r="F4" s="4">
         <v>2.8997187000000001E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
       <c r="L4" s="4">
@@ -1445,19 +1432,19 @@
       <c r="P4" s="4">
         <v>4.8324702000000002E-3</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
       <c r="V4" s="4">
@@ -1475,19 +1462,19 @@
       <c r="Z4" s="4">
         <v>1.12135E-2</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="4">
         <v>1.2139453E-2</v>
       </c>
       <c r="AF4" s="4">
@@ -1505,19 +1492,19 @@
       <c r="AJ4" s="4">
         <v>1.3294805E-2</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AK4" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AO4" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
       <c r="AP4" s="4">
@@ -1535,19 +1522,19 @@
       <c r="AT4" s="4">
         <v>1.8056309999999999E-2</v>
       </c>
-      <c r="AU4" s="6">
+      <c r="AU4" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AV4" s="6">
+      <c r="AV4" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="AW4" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AX4" s="6">
+      <c r="AX4" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AY4" s="6">
+      <c r="AY4" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
       <c r="AZ4" s="4">
@@ -1565,19 +1552,19 @@
       <c r="BD4" s="4">
         <v>2.5787995000000001E-2</v>
       </c>
-      <c r="BE4" s="6">
+      <c r="BE4" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BF4" s="6">
+      <c r="BF4" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BG4" s="6">
+      <c r="BG4" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BH4" s="6">
+      <c r="BH4" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BI4" s="6">
+      <c r="BI4" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
       <c r="BJ4" s="4">
@@ -1595,19 +1582,19 @@
       <c r="BN4" s="4">
         <v>6.3821943000000006E-2</v>
       </c>
-      <c r="BO4" s="6">
+      <c r="BO4" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BP4" s="6">
+      <c r="BP4" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BQ4" s="6">
+      <c r="BQ4" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BR4" s="6">
+      <c r="BR4" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BS4" s="6">
+      <c r="BS4" s="4">
         <v>0.12903529</v>
       </c>
       <c r="BT4" s="4">
@@ -1625,19 +1612,19 @@
       <c r="BX4" s="4">
         <v>0.22060627999999999</v>
       </c>
-      <c r="BY4" s="6">
+      <c r="BY4" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="BZ4" s="6">
+      <c r="BZ4" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CA4" s="6">
+      <c r="CA4" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CB4" s="6">
+      <c r="CB4" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CC4" s="6">
+      <c r="CC4" s="4">
         <v>0.30650785000000003</v>
       </c>
       <c r="CD4" s="4">
@@ -1655,19 +1642,19 @@
       <c r="CH4" s="4">
         <v>0.43375095000000002</v>
       </c>
-      <c r="CI4" s="6">
+      <c r="CI4" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CJ4" s="6">
+      <c r="CJ4" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CK4" s="6">
+      <c r="CK4" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CL4" s="6">
+      <c r="CL4" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CM4" s="6">
+      <c r="CM4" s="4">
         <v>0.59405808999999998</v>
       </c>
       <c r="CN4" s="4">
@@ -1685,19 +1672,19 @@
       <c r="CR4" s="4">
         <v>0.79229609000000001</v>
       </c>
-      <c r="CS4" s="6">
+      <c r="CS4" s="4">
         <v>0.8</v>
       </c>
-      <c r="CT4" s="6">
+      <c r="CT4" s="4">
         <v>0.8</v>
       </c>
-      <c r="CU4" s="6">
+      <c r="CU4" s="4">
         <v>0.8</v>
       </c>
-      <c r="CV4" s="6">
+      <c r="CV4" s="4">
         <v>0.8</v>
       </c>
-      <c r="CW4" s="6">
+      <c r="CW4" s="4">
         <v>0.8</v>
       </c>
       <c r="CX4" s="4">
@@ -1708,7 +1695,7 @@
       <c r="A5" s="1">
         <v>1953</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.18999031999999999</v>
       </c>
       <c r="C5" s="4">
@@ -1723,19 +1710,19 @@
       <c r="F5" s="4">
         <v>2.8997187000000001E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
       <c r="L5" s="4">
@@ -1753,19 +1740,19 @@
       <c r="P5" s="4">
         <v>4.8324702000000002E-3</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
       <c r="V5" s="4">
@@ -1783,19 +1770,19 @@
       <c r="Z5" s="4">
         <v>1.12135E-2</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="4">
         <v>1.2139453E-2</v>
       </c>
       <c r="AF5" s="4">
@@ -1813,19 +1800,19 @@
       <c r="AJ5" s="4">
         <v>1.3294805E-2</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AK5" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AO5" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
       <c r="AP5" s="4">
@@ -1843,19 +1830,19 @@
       <c r="AT5" s="4">
         <v>1.8056309999999999E-2</v>
       </c>
-      <c r="AU5" s="6">
+      <c r="AU5" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AV5" s="6">
+      <c r="AV5" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AW5" s="6">
+      <c r="AW5" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AX5" s="6">
+      <c r="AX5" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AY5" s="6">
+      <c r="AY5" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
       <c r="AZ5" s="4">
@@ -1873,19 +1860,19 @@
       <c r="BD5" s="4">
         <v>2.5787995000000001E-2</v>
       </c>
-      <c r="BE5" s="6">
+      <c r="BE5" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BF5" s="6">
+      <c r="BF5" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BG5" s="6">
+      <c r="BG5" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BH5" s="6">
+      <c r="BH5" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BI5" s="6">
+      <c r="BI5" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
       <c r="BJ5" s="4">
@@ -1903,19 +1890,19 @@
       <c r="BN5" s="4">
         <v>6.3821943000000006E-2</v>
       </c>
-      <c r="BO5" s="6">
+      <c r="BO5" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BP5" s="6">
+      <c r="BP5" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BQ5" s="6">
+      <c r="BQ5" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BR5" s="6">
+      <c r="BR5" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BS5" s="6">
+      <c r="BS5" s="4">
         <v>0.12903529</v>
       </c>
       <c r="BT5" s="4">
@@ -1933,19 +1920,19 @@
       <c r="BX5" s="4">
         <v>0.22060627999999999</v>
       </c>
-      <c r="BY5" s="6">
+      <c r="BY5" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="BZ5" s="6">
+      <c r="BZ5" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CA5" s="6">
+      <c r="CA5" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CB5" s="6">
+      <c r="CB5" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CC5" s="6">
+      <c r="CC5" s="4">
         <v>0.30650785000000003</v>
       </c>
       <c r="CD5" s="4">
@@ -1963,19 +1950,19 @@
       <c r="CH5" s="4">
         <v>0.43375095000000002</v>
       </c>
-      <c r="CI5" s="6">
+      <c r="CI5" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CJ5" s="6">
+      <c r="CJ5" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CK5" s="6">
+      <c r="CK5" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CL5" s="6">
+      <c r="CL5" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CM5" s="6">
+      <c r="CM5" s="4">
         <v>0.59405808999999998</v>
       </c>
       <c r="CN5" s="4">
@@ -1993,19 +1980,19 @@
       <c r="CR5" s="4">
         <v>0.79229609000000001</v>
       </c>
-      <c r="CS5" s="6">
+      <c r="CS5" s="4">
         <v>0.8</v>
       </c>
-      <c r="CT5" s="6">
+      <c r="CT5" s="4">
         <v>0.8</v>
       </c>
-      <c r="CU5" s="6">
+      <c r="CU5" s="4">
         <v>0.8</v>
       </c>
-      <c r="CV5" s="6">
+      <c r="CV5" s="4">
         <v>0.8</v>
       </c>
-      <c r="CW5" s="6">
+      <c r="CW5" s="4">
         <v>0.8</v>
       </c>
       <c r="CX5" s="4">
@@ -2016,7 +2003,7 @@
       <c r="A6" s="3">
         <v>1954</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.18999031999999999</v>
       </c>
       <c r="C6" s="4">
@@ -2031,19 +2018,19 @@
       <c r="F6" s="4">
         <v>2.8997187000000001E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>8.4491956000000007E-3</v>
       </c>
       <c r="L6" s="4">
@@ -2061,19 +2048,19 @@
       <c r="P6" s="4">
         <v>4.8324702000000002E-3</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="4">
         <v>6.9055521000000002E-3</v>
       </c>
       <c r="V6" s="4">
@@ -2091,19 +2078,19 @@
       <c r="Z6" s="4">
         <v>1.12135E-2</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="4">
         <v>1.2139453E-2</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="4">
         <v>1.2139453E-2</v>
       </c>
       <c r="AF6" s="4">
@@ -2121,19 +2108,19 @@
       <c r="AJ6" s="4">
         <v>1.3294805E-2</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AO6" s="4">
         <v>1.5322471000000001E-2</v>
       </c>
       <c r="AP6" s="4">
@@ -2151,19 +2138,19 @@
       <c r="AT6" s="4">
         <v>1.8056309999999999E-2</v>
       </c>
-      <c r="AU6" s="6">
+      <c r="AU6" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AV6" s="6">
+      <c r="AV6" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AW6" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AX6" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
-      <c r="AY6" s="6">
+      <c r="AY6" s="4">
         <v>2.1016791999999999E-2</v>
       </c>
       <c r="AZ6" s="4">
@@ -2181,19 +2168,19 @@
       <c r="BD6" s="4">
         <v>2.5787995000000001E-2</v>
       </c>
-      <c r="BE6" s="6">
+      <c r="BE6" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BF6" s="6">
+      <c r="BF6" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BG6" s="6">
+      <c r="BG6" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BH6" s="6">
+      <c r="BH6" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
-      <c r="BI6" s="6">
+      <c r="BI6" s="4">
         <v>3.1566872000000003E-2</v>
       </c>
       <c r="BJ6" s="4">
@@ -2211,19 +2198,19 @@
       <c r="BN6" s="4">
         <v>6.3821943000000006E-2</v>
       </c>
-      <c r="BO6" s="6">
+      <c r="BO6" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BP6" s="6">
+      <c r="BP6" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BQ6" s="6">
+      <c r="BQ6" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BR6" s="6">
+      <c r="BR6" s="4">
         <v>0.12903529</v>
       </c>
-      <c r="BS6" s="6">
+      <c r="BS6" s="4">
         <v>0.12903529</v>
       </c>
       <c r="BT6" s="4">
@@ -2241,19 +2228,19 @@
       <c r="BX6" s="4">
         <v>0.22060627999999999</v>
       </c>
-      <c r="BY6" s="6">
+      <c r="BY6" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="BZ6" s="6">
+      <c r="BZ6" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CA6" s="6">
+      <c r="CA6" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CB6" s="6">
+      <c r="CB6" s="4">
         <v>0.30650785000000003</v>
       </c>
-      <c r="CC6" s="6">
+      <c r="CC6" s="4">
         <v>0.30650785000000003</v>
       </c>
       <c r="CD6" s="4">
@@ -2271,19 +2258,19 @@
       <c r="CH6" s="4">
         <v>0.43375095000000002</v>
       </c>
-      <c r="CI6" s="6">
+      <c r="CI6" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CJ6" s="6">
+      <c r="CJ6" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CK6" s="6">
+      <c r="CK6" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CL6" s="6">
+      <c r="CL6" s="4">
         <v>0.59405808999999998</v>
       </c>
-      <c r="CM6" s="6">
+      <c r="CM6" s="4">
         <v>0.59405808999999998</v>
       </c>
       <c r="CN6" s="4">
@@ -2301,19 +2288,19 @@
       <c r="CR6" s="4">
         <v>0.79229609000000001</v>
       </c>
-      <c r="CS6" s="6">
+      <c r="CS6" s="4">
         <v>0.8</v>
       </c>
-      <c r="CT6" s="6">
+      <c r="CT6" s="4">
         <v>0.8</v>
       </c>
-      <c r="CU6" s="6">
+      <c r="CU6" s="4">
         <v>0.8</v>
       </c>
-      <c r="CV6" s="6">
+      <c r="CV6" s="4">
         <v>0.8</v>
       </c>
-      <c r="CW6" s="6">
+      <c r="CW6" s="4">
         <v>0.8</v>
       </c>
       <c r="CX6" s="4">
@@ -6944,307 +6931,307 @@
       <c r="A22" s="3">
         <v>1970</v>
       </c>
-      <c r="B22" s="3">
-        <v>4.1059999999999999E-2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5.4299999999999999E-3</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="5">
+        <v>4.1889999999999997E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5.4099999999999999E-3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3.0400000000000002E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1.82E-3</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1.73E-3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1.72E-3</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="R22" s="5">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="S22" s="5">
         <v>2.8800000000000002E-3</v>
       </c>
-      <c r="E22" s="3">
-        <v>2.66E-3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2.48E-3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2.7599999999999999E-3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2.0200000000000001E-3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1.65E-3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1.56E-3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1.5200000000000001E-3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1.5399999999999999E-3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1.7799999999999999E-3</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1.97E-3</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2.47E-3</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2.7799999999999999E-3</v>
+      <c r="T22" s="5">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="U22" s="5">
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="V22" s="5">
-        <v>2.2000000000000001E-4</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="W22" s="5">
-        <v>2.5000000000000001E-4</v>
+        <v>4.0099999999999997E-3</v>
       </c>
       <c r="X22" s="5">
-        <v>2.5999999999999998E-4</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="Y22" s="5">
-        <v>2.7999999999999998E-4</v>
+        <v>3.9899999999999996E-3</v>
       </c>
       <c r="Z22" s="5">
-        <v>2.7999999999999998E-4</v>
+        <v>3.8400000000000001E-3</v>
       </c>
       <c r="AA22" s="5">
-        <v>2.7999999999999998E-4</v>
+        <v>3.48E-3</v>
       </c>
       <c r="AB22" s="5">
-        <v>2.7E-4</v>
+        <v>3.3500000000000001E-3</v>
       </c>
       <c r="AC22" s="5">
-        <v>2.7999999999999998E-4</v>
+        <v>3.29E-3</v>
       </c>
       <c r="AD22" s="5">
-        <v>2.9999999999999997E-4</v>
+        <v>3.31E-3</v>
       </c>
       <c r="AE22" s="5">
-        <v>3.3E-4</v>
+        <v>3.4099999999999998E-3</v>
       </c>
       <c r="AF22" s="5">
-        <v>3.6999999999999999E-4</v>
+        <v>3.6900000000000001E-3</v>
       </c>
       <c r="AG22" s="5">
-        <v>4.0999999999999999E-4</v>
+        <v>3.8400000000000001E-3</v>
       </c>
       <c r="AH22" s="5">
-        <v>4.4000000000000002E-4</v>
+        <v>3.96E-3</v>
       </c>
       <c r="AI22" s="5">
-        <v>4.6000000000000001E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="AJ22" s="5">
-        <v>4.8000000000000001E-4</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="AK22" s="5">
-        <v>5.0000000000000001E-4</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="AL22" s="5">
-        <v>5.4000000000000001E-4</v>
+        <v>3.9699999999999996E-3</v>
       </c>
       <c r="AM22" s="5">
-        <v>5.9000000000000003E-4</v>
+        <v>4.1900000000000001E-3</v>
       </c>
       <c r="AN22" s="5">
-        <v>6.3000000000000003E-4</v>
+        <v>4.5900000000000003E-3</v>
       </c>
       <c r="AO22" s="5">
-        <v>6.6E-4</v>
+        <v>5.1599999999999997E-3</v>
       </c>
       <c r="AP22" s="5">
-        <v>6.8999999999999997E-4</v>
+        <v>6.13E-3</v>
       </c>
       <c r="AQ22" s="5">
-        <v>7.2999999999999996E-4</v>
+        <v>7.0299999999999998E-3</v>
       </c>
       <c r="AR22" s="5">
-        <v>7.6999999999999996E-4</v>
+        <v>7.9900000000000006E-3</v>
       </c>
       <c r="AS22" s="5">
-        <v>8.1999999999999998E-4</v>
+        <v>8.9300000000000004E-3</v>
       </c>
       <c r="AT22" s="5">
-        <v>8.7000000000000001E-4</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="AU22" s="5">
-        <v>9.2000000000000003E-4</v>
+        <v>1.057E-2</v>
       </c>
       <c r="AV22" s="5">
-        <v>9.7999999999999997E-4</v>
+        <v>1.1429999999999999E-2</v>
       </c>
       <c r="AW22" s="5">
-        <v>1.07E-3</v>
+        <v>1.234E-2</v>
       </c>
       <c r="AX22" s="5">
-        <v>1.16E-3</v>
+        <v>1.336E-2</v>
       </c>
       <c r="AY22" s="5">
-        <v>1.25E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="AZ22" s="5">
-        <v>1.3500000000000001E-3</v>
+        <v>1.576E-2</v>
       </c>
       <c r="BA22" s="5">
-        <v>1.4400000000000001E-3</v>
+        <v>1.7219999999999999E-2</v>
       </c>
       <c r="BB22" s="5">
-        <v>1.5200000000000001E-3</v>
+        <v>1.8870000000000001E-2</v>
       </c>
       <c r="BC22" s="5">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0729999999999998E-2</v>
       </c>
       <c r="BD22" s="5">
-        <v>1.67E-3</v>
+        <v>2.2790000000000001E-2</v>
       </c>
       <c r="BE22" s="5">
-        <v>1.75E-3</v>
+        <v>2.5340000000000001E-2</v>
       </c>
       <c r="BF22" s="5">
-        <v>1.8699999999999999E-3</v>
+        <v>2.7689999999999999E-2</v>
       </c>
       <c r="BG22" s="5">
-        <v>2.0200000000000001E-3</v>
+        <v>3.006E-2</v>
       </c>
       <c r="BH22" s="5">
-        <v>2.1700000000000001E-3</v>
+        <v>3.2370000000000003E-2</v>
       </c>
       <c r="BI22" s="5">
-        <v>2.31E-3</v>
+        <v>3.4669999999999999E-2</v>
       </c>
       <c r="BJ22" s="5">
-        <v>2.47E-3</v>
+        <v>3.6679999999999997E-2</v>
       </c>
       <c r="BK22" s="5">
-        <v>2.6700000000000001E-3</v>
+        <v>3.925E-2</v>
       </c>
       <c r="BL22" s="5">
-        <v>2.8999999999999998E-3</v>
+        <v>4.2169999999999999E-2</v>
       </c>
       <c r="BM22" s="5">
-        <v>3.1700000000000001E-3</v>
+        <v>4.5609999999999998E-2</v>
       </c>
       <c r="BN22" s="5">
-        <v>3.4499999999999999E-3</v>
+        <v>4.9480000000000003E-2</v>
       </c>
       <c r="BO22" s="5">
-        <v>3.7799999999999999E-3</v>
+        <v>5.4850000000000003E-2</v>
       </c>
       <c r="BP22" s="5">
-        <v>4.2300000000000003E-3</v>
+        <v>5.9089999999999997E-2</v>
       </c>
       <c r="BQ22" s="5">
-        <v>4.7600000000000003E-3</v>
+        <v>6.3030000000000003E-2</v>
       </c>
       <c r="BR22" s="5">
-        <v>5.4099999999999999E-3</v>
+        <v>6.6379999999999995E-2</v>
       </c>
       <c r="BS22" s="5">
-        <v>6.0499999999999998E-3</v>
+        <v>6.9379999999999997E-2</v>
       </c>
       <c r="BT22" s="5">
-        <v>6.7299999999999999E-3</v>
+        <v>7.0870000000000002E-2</v>
       </c>
       <c r="BU22" s="5">
-        <v>7.5399999999999998E-3</v>
+        <v>7.4389999999999998E-2</v>
       </c>
       <c r="BV22" s="5">
-        <v>8.6099999999999996E-3</v>
+        <v>7.9030000000000003E-2</v>
       </c>
       <c r="BW22" s="5">
-        <v>1.0120000000000001E-2</v>
+        <v>8.5339999999999999E-2</v>
       </c>
       <c r="BX22" s="5">
-        <v>1.197E-2</v>
+        <v>9.3909999999999993E-2</v>
       </c>
       <c r="BY22" s="5">
-        <v>1.414E-2</v>
+        <v>0.10335</v>
       </c>
       <c r="BZ22" s="5">
-        <v>1.67E-2</v>
+        <v>0.11385000000000001</v>
       </c>
       <c r="CA22" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>0.12481</v>
       </c>
       <c r="CB22" s="5">
-        <v>2.2859999999999998E-2</v>
+        <v>0.13558000000000001</v>
       </c>
       <c r="CC22" s="5">
-        <v>2.649E-2</v>
+        <v>0.14602000000000001</v>
       </c>
       <c r="CD22" s="5">
-        <v>3.0839999999999999E-2</v>
+        <v>0.15619</v>
       </c>
       <c r="CE22" s="5">
-        <v>3.6150000000000002E-2</v>
+        <v>0.16622000000000001</v>
       </c>
       <c r="CF22" s="5">
-        <v>4.2459999999999998E-2</v>
+        <v>0.17629</v>
       </c>
       <c r="CG22" s="5">
-        <v>4.9790000000000001E-2</v>
+        <v>0.18656</v>
       </c>
       <c r="CH22" s="5">
-        <v>5.7799999999999997E-2</v>
+        <v>0.19699</v>
       </c>
       <c r="CI22" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0.20804</v>
       </c>
       <c r="CJ22" s="5">
-        <v>7.6619999999999994E-2</v>
+        <v>0.21958</v>
       </c>
       <c r="CK22" s="5">
-        <v>8.7609999999999993E-2</v>
+        <v>0.23163</v>
       </c>
       <c r="CL22" s="5">
-        <v>9.9720000000000003E-2</v>
+        <v>0.2442</v>
       </c>
       <c r="CM22" s="5">
-        <v>0.11297</v>
+        <v>0.25731999999999999</v>
       </c>
       <c r="CN22" s="5">
-        <v>0.12739</v>
+        <v>0.27098</v>
       </c>
       <c r="CO22" s="5">
-        <v>0.14298</v>
+        <v>0.28521000000000002</v>
       </c>
       <c r="CP22" s="5">
-        <v>0.15973999999999999</v>
+        <v>0.30001</v>
       </c>
       <c r="CQ22" s="5">
-        <v>0.17765</v>
+        <v>0.31541000000000002</v>
       </c>
       <c r="CR22" s="5">
-        <v>0.19664000000000001</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="CS22" s="5">
-        <v>0.21665000000000001</v>
+        <v>0.34802</v>
       </c>
       <c r="CT22" s="5">
-        <v>0.23760000000000001</v>
+        <v>0.36525999999999997</v>
       </c>
       <c r="CU22" s="5">
-        <v>0.25936999999999999</v>
+        <v>0.38313000000000003</v>
       </c>
       <c r="CV22" s="5">
-        <v>0.28183000000000002</v>
+        <v>0.40166000000000002</v>
       </c>
       <c r="CW22" s="5">
-        <v>0.30481000000000003</v>
-      </c>
-      <c r="CX22" s="2">
+        <v>0.42083999999999999</v>
+      </c>
+      <c r="CX22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7252,307 +7239,307 @@
       <c r="A23" s="3">
         <v>1971</v>
       </c>
-      <c r="B23" s="3">
-        <v>3.993E-2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5.3400000000000001E-3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2.81E-3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5600000000000002E-3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2.6099999999999999E-3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.1099999999999999E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="B23" s="5">
+        <v>4.0750000000000001E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1.9300000000000001E-3</v>
+      </c>
+      <c r="L23" s="5">
         <v>1.72E-3</v>
       </c>
-      <c r="L23" s="3">
-        <v>1.5499999999999999E-3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1.47E-3</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1.4400000000000001E-3</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1.47E-3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1.5499999999999999E-3</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="M23" s="5">
+        <v>1.64E-3</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="O23" s="5">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="R23" s="3">
-        <v>1.8799999999999999E-3</v>
-      </c>
-      <c r="S23" s="3">
-        <v>2.0899999999999998E-3</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2.33E-3</v>
-      </c>
-      <c r="U23" s="3">
-        <v>2.5999999999999999E-3</v>
+      <c r="P23" s="5">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="R23" s="5">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="S23" s="5">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="T23" s="5">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="U23" s="5">
+        <v>3.3500000000000001E-3</v>
       </c>
       <c r="V23" s="5">
-        <v>3.2399999999999998E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="W23" s="5">
-        <v>3.5300000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="X23" s="5">
-        <v>3.7599999999999999E-3</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="Y23" s="5">
-        <v>3.8700000000000002E-3</v>
+        <v>3.79E-3</v>
       </c>
       <c r="Z23" s="5">
-        <v>3.8800000000000002E-3</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="AA23" s="5">
-        <v>3.6900000000000001E-3</v>
+        <v>3.3800000000000002E-3</v>
       </c>
       <c r="AB23" s="5">
-        <v>3.6099999999999999E-3</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="AC23" s="5">
-        <v>3.5300000000000002E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="AD23" s="5">
-        <v>3.47E-3</v>
+        <v>3.2499999999999999E-3</v>
       </c>
       <c r="AE23" s="5">
-        <v>3.4399999999999999E-3</v>
+        <v>3.3400000000000001E-3</v>
       </c>
       <c r="AF23" s="5">
-        <v>3.4499999999999999E-3</v>
+        <v>3.5899999999999999E-3</v>
       </c>
       <c r="AG23" s="5">
-        <v>3.4399999999999999E-3</v>
+        <v>3.7299999999999998E-3</v>
       </c>
       <c r="AH23" s="5">
-        <v>3.4299999999999999E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="AI23" s="5">
-        <v>3.4099999999999998E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="AJ23" s="5">
-        <v>3.3999999999999998E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AK23" s="5">
-        <v>3.3500000000000001E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="AL23" s="5">
-        <v>3.3999999999999998E-3</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="AM23" s="5">
-        <v>3.5000000000000001E-3</v>
+        <v>4.2700000000000004E-3</v>
       </c>
       <c r="AN23" s="5">
-        <v>3.6800000000000001E-3</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="AO23" s="5">
-        <v>3.9199999999999999E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="AP23" s="5">
-        <v>4.3E-3</v>
+        <v>6.1399999999999996E-3</v>
       </c>
       <c r="AQ23" s="5">
-        <v>4.6299999999999996E-3</v>
+        <v>6.9899999999999997E-3</v>
       </c>
       <c r="AR23" s="5">
-        <v>4.96E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="AS23" s="5">
-        <v>5.2700000000000004E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="AT23" s="5">
-        <v>5.5700000000000003E-3</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="AU23" s="5">
-        <v>5.79E-3</v>
+        <v>1.043E-2</v>
       </c>
       <c r="AV23" s="5">
-        <v>6.0899999999999999E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="AW23" s="5">
-        <v>6.4200000000000004E-3</v>
+        <v>1.221E-2</v>
       </c>
       <c r="AX23" s="5">
-        <v>6.7999999999999996E-3</v>
+        <v>1.323E-2</v>
       </c>
       <c r="AY23" s="5">
-        <v>7.2399999999999999E-3</v>
+        <v>1.438E-2</v>
       </c>
       <c r="AZ23" s="5">
-        <v>7.7499999999999999E-3</v>
+        <v>1.5630000000000002E-2</v>
       </c>
       <c r="BA23" s="5">
-        <v>8.3000000000000001E-3</v>
+        <v>1.7069999999999998E-2</v>
       </c>
       <c r="BB23" s="5">
-        <v>8.8900000000000003E-3</v>
+        <v>1.8669999999999999E-2</v>
       </c>
       <c r="BC23" s="5">
-        <v>9.5300000000000003E-3</v>
+        <v>2.0469999999999999E-2</v>
       </c>
       <c r="BD23" s="5">
-        <v>1.021E-2</v>
+        <v>2.2450000000000001E-2</v>
       </c>
       <c r="BE23" s="5">
-        <v>1.093E-2</v>
+        <v>2.4840000000000001E-2</v>
       </c>
       <c r="BF23" s="5">
-        <v>1.1730000000000001E-2</v>
+        <v>2.7089999999999999E-2</v>
       </c>
       <c r="BG23" s="5">
-        <v>1.259E-2</v>
+        <v>2.938E-2</v>
       </c>
       <c r="BH23" s="5">
-        <v>1.353E-2</v>
+        <v>3.1669999999999997E-2</v>
       </c>
       <c r="BI23" s="5">
-        <v>1.455E-2</v>
+        <v>3.397E-2</v>
       </c>
       <c r="BJ23" s="5">
-        <v>1.5689999999999999E-2</v>
+        <v>3.6069999999999998E-2</v>
       </c>
       <c r="BK23" s="5">
-        <v>1.687E-2</v>
+        <v>3.8670000000000003E-2</v>
       </c>
       <c r="BL23" s="5">
-        <v>1.814E-2</v>
+        <v>4.1619999999999997E-2</v>
       </c>
       <c r="BM23" s="5">
-        <v>1.9480000000000001E-2</v>
+        <v>4.5039999999999997E-2</v>
       </c>
       <c r="BN23" s="5">
-        <v>2.0920000000000001E-2</v>
+        <v>4.8869999999999997E-2</v>
       </c>
       <c r="BO23" s="5">
-        <v>2.24E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="BP23" s="5">
-        <v>2.4070000000000001E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="BQ23" s="5">
-        <v>2.589E-2</v>
+        <v>6.2239999999999997E-2</v>
       </c>
       <c r="BR23" s="5">
-        <v>2.7900000000000001E-2</v>
+        <v>6.5689999999999998E-2</v>
       </c>
       <c r="BS23" s="5">
-        <v>3.0159999999999999E-2</v>
+        <v>6.8820000000000006E-2</v>
       </c>
       <c r="BT23" s="5">
-        <v>3.2480000000000002E-2</v>
+        <v>7.0620000000000002E-2</v>
       </c>
       <c r="BU23" s="5">
-        <v>3.5479999999999998E-2</v>
+        <v>7.4310000000000001E-2</v>
       </c>
       <c r="BV23" s="5">
-        <v>3.9039999999999998E-2</v>
+        <v>7.9070000000000001E-2</v>
       </c>
       <c r="BW23" s="5">
-        <v>4.3299999999999998E-2</v>
+        <v>8.5440000000000002E-2</v>
       </c>
       <c r="BX23" s="5">
-        <v>4.9009999999999998E-2</v>
+        <v>9.3939999999999996E-2</v>
       </c>
       <c r="BY23" s="5">
-        <v>5.4879999999999998E-2</v>
+        <v>0.10332</v>
       </c>
       <c r="BZ23" s="5">
-        <v>6.1499999999999999E-2</v>
+        <v>0.11371000000000001</v>
       </c>
       <c r="CA23" s="5">
-        <v>6.8830000000000002E-2</v>
+        <v>0.12456</v>
       </c>
       <c r="CB23" s="5">
-        <v>7.6749999999999999E-2</v>
+        <v>0.13522999999999999</v>
       </c>
       <c r="CC23" s="5">
-        <v>8.5260000000000002E-2</v>
+        <v>0.14560999999999999</v>
       </c>
       <c r="CD23" s="5">
-        <v>9.4339999999999993E-2</v>
+        <v>0.15573999999999999</v>
       </c>
       <c r="CE23" s="5">
-        <v>0.10398</v>
+        <v>0.16574</v>
       </c>
       <c r="CF23" s="5">
-        <v>0.11416</v>
+        <v>0.17577999999999999</v>
       </c>
       <c r="CG23" s="5">
-        <v>0.12485</v>
+        <v>0.18603</v>
       </c>
       <c r="CH23" s="5">
-        <v>0.13597000000000001</v>
+        <v>0.19642999999999999</v>
       </c>
       <c r="CI23" s="5">
-        <v>0.14781</v>
+        <v>0.20745</v>
       </c>
       <c r="CJ23" s="5">
-        <v>0.16033</v>
+        <v>0.21895999999999999</v>
       </c>
       <c r="CK23" s="5">
-        <v>0.17352000000000001</v>
+        <v>0.23097999999999999</v>
       </c>
       <c r="CL23" s="5">
-        <v>0.18737999999999999</v>
+        <v>0.24353</v>
       </c>
       <c r="CM23" s="5">
-        <v>0.20188999999999999</v>
+        <v>0.25662000000000001</v>
       </c>
       <c r="CN23" s="5">
-        <v>0.21704999999999999</v>
+        <v>0.27026</v>
       </c>
       <c r="CO23" s="5">
-        <v>0.23283999999999999</v>
+        <v>0.28447</v>
       </c>
       <c r="CP23" s="5">
-        <v>0.24920999999999999</v>
+        <v>0.29925000000000002</v>
       </c>
       <c r="CQ23" s="5">
-        <v>0.26615</v>
+        <v>0.31463000000000002</v>
       </c>
       <c r="CR23" s="5">
-        <v>0.28360000000000002</v>
+        <v>0.33062000000000002</v>
       </c>
       <c r="CS23" s="5">
-        <v>0.30153000000000002</v>
+        <v>0.34721999999999997</v>
       </c>
       <c r="CT23" s="5">
-        <v>0.31989000000000001</v>
+        <v>0.36446000000000001</v>
       </c>
       <c r="CU23" s="5">
-        <v>0.33860000000000001</v>
+        <v>0.38234000000000001</v>
       </c>
       <c r="CV23" s="5">
-        <v>0.35761999999999999</v>
+        <v>0.40087</v>
       </c>
       <c r="CW23" s="5">
-        <v>0.37686999999999998</v>
-      </c>
-      <c r="CX23" s="2">
+        <v>0.42007</v>
+      </c>
+      <c r="CX23" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7560,307 +7547,307 @@
       <c r="A24" s="3">
         <v>1972</v>
       </c>
-      <c r="B24" s="3">
-        <v>3.8830000000000003E-2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5.2599999999999999E-3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="B24" s="5">
+        <v>3.9640000000000002E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="H24" s="5">
         <v>2.47E-3</v>
       </c>
-      <c r="F24" s="3">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2.2100000000000002E-3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1.98E-3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="5">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1.82E-3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="P24" s="5">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="K24" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1.47E-3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1.39E-3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1.3699999999999999E-3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1.4E-3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1.47E-3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1.6299999999999999E-3</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1.7899999999999999E-3</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1.99E-3</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="U24" s="3">
-        <v>2.4299999999999999E-3</v>
+      <c r="Q24" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="R24" s="5">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="S24" s="5">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="T24" s="5">
+        <v>2.96E-3</v>
+      </c>
+      <c r="U24" s="5">
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="V24" s="5">
-        <v>2.98E-3</v>
+        <v>3.47E-3</v>
       </c>
       <c r="W24" s="5">
-        <v>3.2299999999999998E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="X24" s="5">
-        <v>3.4199999999999999E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="Y24" s="5">
+        <v>3.6099999999999999E-3</v>
+      </c>
+      <c r="Z24" s="5">
         <v>3.5200000000000001E-3</v>
       </c>
-      <c r="Z24" s="5">
-        <v>3.5400000000000002E-3</v>
-      </c>
       <c r="AA24" s="5">
-        <v>3.4099999999999998E-3</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="AB24" s="5">
-        <v>3.3500000000000001E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="AC24" s="5">
-        <v>3.3E-3</v>
+        <v>3.15E-3</v>
       </c>
       <c r="AD24" s="5">
-        <v>3.2599999999999999E-3</v>
+        <v>3.1800000000000001E-3</v>
       </c>
       <c r="AE24" s="5">
-        <v>3.2399999999999998E-3</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="AF24" s="5">
-        <v>3.2499999999999999E-3</v>
+        <v>3.49E-3</v>
       </c>
       <c r="AG24" s="5">
-        <v>3.2499999999999999E-3</v>
+        <v>3.63E-3</v>
       </c>
       <c r="AH24" s="5">
-        <v>3.2499999999999999E-3</v>
+        <v>3.7599999999999999E-3</v>
       </c>
       <c r="AI24" s="5">
-        <v>3.2499999999999999E-3</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="AJ24" s="5">
-        <v>3.2599999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="AK24" s="5">
-        <v>3.2299999999999998E-3</v>
+        <v>3.9300000000000003E-3</v>
       </c>
       <c r="AL24" s="5">
-        <v>3.29E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="AM24" s="5">
-        <v>3.3999999999999998E-3</v>
+        <v>4.3600000000000002E-3</v>
       </c>
       <c r="AN24" s="5">
-        <v>3.5699999999999998E-3</v>
+        <v>4.7600000000000003E-3</v>
       </c>
       <c r="AO24" s="5">
-        <v>3.8E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="AP24" s="5">
-        <v>4.1399999999999996E-3</v>
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="AQ24" s="5">
-        <v>4.45E-3</v>
+        <v>6.9499999999999996E-3</v>
       </c>
       <c r="AR24" s="5">
-        <v>4.7699999999999999E-3</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="AS24" s="5">
-        <v>5.0699999999999999E-3</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="AT24" s="5">
-        <v>5.3600000000000002E-3</v>
+        <v>9.5200000000000007E-3</v>
       </c>
       <c r="AU24" s="5">
-        <v>5.6100000000000004E-3</v>
+        <v>1.03E-2</v>
       </c>
       <c r="AV24" s="5">
-        <v>5.9100000000000003E-3</v>
+        <v>1.116E-2</v>
       </c>
       <c r="AW24" s="5">
-        <v>6.2500000000000003E-3</v>
+        <v>1.209E-2</v>
       </c>
       <c r="AX24" s="5">
-        <v>6.6400000000000001E-3</v>
+        <v>1.311E-2</v>
       </c>
       <c r="AY24" s="5">
-        <v>7.0699999999999999E-3</v>
+        <v>1.4250000000000001E-2</v>
       </c>
       <c r="AZ24" s="5">
-        <v>7.5799999999999999E-3</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="BA24" s="5">
-        <v>8.1200000000000005E-3</v>
+        <v>1.6920000000000001E-2</v>
       </c>
       <c r="BB24" s="5">
-        <v>8.6899999999999998E-3</v>
+        <v>1.848E-2</v>
       </c>
       <c r="BC24" s="5">
-        <v>9.3100000000000006E-3</v>
+        <v>2.0209999999999999E-2</v>
       </c>
       <c r="BD24" s="5">
-        <v>9.9699999999999997E-3</v>
+        <v>2.2110000000000001E-2</v>
       </c>
       <c r="BE24" s="5">
-        <v>1.065E-2</v>
+        <v>2.4340000000000001E-2</v>
       </c>
       <c r="BF24" s="5">
-        <v>1.142E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="BG24" s="5">
-        <v>1.226E-2</v>
+        <v>2.8729999999999999E-2</v>
       </c>
       <c r="BH24" s="5">
-        <v>1.3180000000000001E-2</v>
+        <v>3.0970000000000001E-2</v>
       </c>
       <c r="BI24" s="5">
-        <v>1.4200000000000001E-2</v>
+        <v>3.3279999999999997E-2</v>
       </c>
       <c r="BJ24" s="5">
-        <v>1.533E-2</v>
+        <v>3.5470000000000002E-2</v>
       </c>
       <c r="BK24" s="5">
-        <v>1.652E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="BL24" s="5">
-        <v>1.78E-2</v>
+        <v>4.1070000000000002E-2</v>
       </c>
       <c r="BM24" s="5">
-        <v>1.916E-2</v>
+        <v>4.4479999999999999E-2</v>
       </c>
       <c r="BN24" s="5">
-        <v>2.0619999999999999E-2</v>
+        <v>4.8280000000000003E-2</v>
       </c>
       <c r="BO24" s="5">
-        <v>2.214E-2</v>
+        <v>5.3359999999999998E-2</v>
       </c>
       <c r="BP24" s="5">
-        <v>2.384E-2</v>
+        <v>5.7529999999999998E-2</v>
       </c>
       <c r="BQ24" s="5">
-        <v>2.5690000000000001E-2</v>
+        <v>6.148E-2</v>
       </c>
       <c r="BR24" s="5">
-        <v>2.7730000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="BS24" s="5">
-        <v>3.0009999999999998E-2</v>
+        <v>6.8269999999999997E-2</v>
       </c>
       <c r="BT24" s="5">
-        <v>3.236E-2</v>
+        <v>7.0370000000000002E-2</v>
       </c>
       <c r="BU24" s="5">
-        <v>3.5360000000000003E-2</v>
+        <v>7.4219999999999994E-2</v>
       </c>
       <c r="BV24" s="5">
-        <v>3.891E-2</v>
+        <v>7.9119999999999996E-2</v>
       </c>
       <c r="BW24" s="5">
-        <v>4.3130000000000002E-2</v>
+        <v>8.5550000000000001E-2</v>
       </c>
       <c r="BX24" s="5">
-        <v>4.8759999999999998E-2</v>
+        <v>9.3979999999999994E-2</v>
       </c>
       <c r="BY24" s="5">
-        <v>5.4530000000000002E-2</v>
+        <v>0.10329000000000001</v>
       </c>
       <c r="BZ24" s="5">
-        <v>6.105E-2</v>
+        <v>0.11358</v>
       </c>
       <c r="CA24" s="5">
-        <v>6.8260000000000001E-2</v>
+        <v>0.12431</v>
       </c>
       <c r="CB24" s="5">
-        <v>7.6050000000000006E-2</v>
+        <v>0.13489000000000001</v>
       </c>
       <c r="CC24" s="5">
-        <v>8.4430000000000005E-2</v>
+        <v>0.1452</v>
       </c>
       <c r="CD24" s="5">
-        <v>9.3369999999999995E-2</v>
+        <v>0.15529000000000001</v>
       </c>
       <c r="CE24" s="5">
-        <v>0.10287</v>
+        <v>0.16525999999999999</v>
       </c>
       <c r="CF24" s="5">
-        <v>0.1129</v>
+        <v>0.17527999999999999</v>
       </c>
       <c r="CG24" s="5">
-        <v>0.12343999999999999</v>
+        <v>0.1855</v>
       </c>
       <c r="CH24" s="5">
-        <v>0.13442000000000001</v>
+        <v>0.19586999999999999</v>
       </c>
       <c r="CI24" s="5">
-        <v>0.14610999999999999</v>
+        <v>0.20685000000000001</v>
       </c>
       <c r="CJ24" s="5">
-        <v>0.15847</v>
+        <v>0.21834000000000001</v>
       </c>
       <c r="CK24" s="5">
-        <v>0.17150000000000001</v>
+        <v>0.23033000000000001</v>
       </c>
       <c r="CL24" s="5">
-        <v>0.1852</v>
+        <v>0.24285999999999999</v>
       </c>
       <c r="CM24" s="5">
-        <v>0.19955999999999999</v>
+        <v>0.25591999999999998</v>
       </c>
       <c r="CN24" s="5">
-        <v>0.21457000000000001</v>
+        <v>0.26954</v>
       </c>
       <c r="CO24" s="5">
-        <v>0.23019999999999999</v>
+        <v>0.28372000000000003</v>
       </c>
       <c r="CP24" s="5">
-        <v>0.24643999999999999</v>
+        <v>0.29848999999999998</v>
       </c>
       <c r="CQ24" s="5">
-        <v>0.26324999999999998</v>
+        <v>0.31385000000000002</v>
       </c>
       <c r="CR24" s="5">
-        <v>0.28059000000000001</v>
+        <v>0.32983000000000001</v>
       </c>
       <c r="CS24" s="5">
-        <v>0.29842000000000002</v>
+        <v>0.34642000000000001</v>
       </c>
       <c r="CT24" s="5">
-        <v>0.31669999999999998</v>
+        <v>0.36365999999999998</v>
       </c>
       <c r="CU24" s="5">
-        <v>0.33537</v>
+        <v>0.38153999999999999</v>
       </c>
       <c r="CV24" s="5">
-        <v>0.35437000000000002</v>
+        <v>0.40007999999999999</v>
       </c>
       <c r="CW24" s="5">
-        <v>0.37363000000000002</v>
-      </c>
-      <c r="CX24" s="2">
+        <v>0.41929</v>
+      </c>
+      <c r="CX24" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7868,307 +7855,307 @@
       <c r="A25" s="3">
         <v>1973</v>
       </c>
-      <c r="B25" s="3">
-        <v>3.7760000000000002E-2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5.1700000000000001E-3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2.6900000000000001E-3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.14E-3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2.32E-3</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1.8500000000000001E-3</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1.67E-3</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1.5200000000000001E-3</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1.32E-3</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1.33E-3</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1.41E-3</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1.56E-3</v>
-      </c>
-      <c r="R25" s="3">
+      <c r="B25" s="5">
+        <v>3.8559999999999997E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5.13E-3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.33E-3</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="K25" s="5">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="S25" s="3">
-        <v>1.89E-3</v>
-      </c>
-      <c r="T25" s="3">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="U25" s="3">
-        <v>2.2699999999999999E-3</v>
+      <c r="L25" s="5">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1.47E-3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1.47E-3</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="R25" s="5">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="S25" s="5">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="T25" s="5">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="U25" s="5">
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="V25" s="5">
-        <v>2.7399999999999998E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="W25" s="5">
-        <v>2.9499999999999999E-3</v>
+        <v>3.4099999999999998E-3</v>
       </c>
       <c r="X25" s="5">
+        <v>3.46E-3</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>3.4299999999999999E-3</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>3.3700000000000002E-3</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="AB25" s="5">
         <v>3.1099999999999999E-3</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>3.2299999999999998E-3</v>
-      </c>
-      <c r="AA25" s="5">
-        <v>3.15E-3</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>3.1199999999999999E-3</v>
       </c>
       <c r="AC25" s="5">
         <v>3.0899999999999999E-3</v>
       </c>
       <c r="AD25" s="5">
-        <v>3.0599999999999998E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="AE25" s="5">
-        <v>3.0599999999999998E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="AF25" s="5">
-        <v>3.0699999999999998E-3</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="AG25" s="5">
-        <v>3.0699999999999998E-3</v>
+        <v>3.5300000000000002E-3</v>
       </c>
       <c r="AH25" s="5">
-        <v>3.0899999999999999E-3</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="AI25" s="5">
-        <v>3.0999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="AJ25" s="5">
-        <v>3.1199999999999999E-3</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="AK25" s="5">
-        <v>3.1199999999999999E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="AL25" s="5">
-        <v>3.1900000000000001E-3</v>
+        <v>4.1599999999999996E-3</v>
       </c>
       <c r="AM25" s="5">
-        <v>3.3E-3</v>
+        <v>4.4400000000000004E-3</v>
       </c>
       <c r="AN25" s="5">
-        <v>3.47E-3</v>
+        <v>4.8500000000000001E-3</v>
       </c>
       <c r="AO25" s="5">
-        <v>3.6800000000000001E-3</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="AP25" s="5">
-        <v>3.9899999999999996E-3</v>
+        <v>6.1599999999999997E-3</v>
       </c>
       <c r="AQ25" s="5">
-        <v>4.28E-3</v>
+        <v>6.9100000000000003E-3</v>
       </c>
       <c r="AR25" s="5">
-        <v>4.5799999999999999E-3</v>
+        <v>7.7200000000000003E-3</v>
       </c>
       <c r="AS25" s="5">
-        <v>4.8700000000000002E-3</v>
+        <v>8.5400000000000007E-3</v>
       </c>
       <c r="AT25" s="5">
-        <v>5.1599999999999997E-3</v>
+        <v>9.3699999999999999E-3</v>
       </c>
       <c r="AU25" s="5">
-        <v>5.4299999999999999E-3</v>
+        <v>1.0160000000000001E-2</v>
       </c>
       <c r="AV25" s="5">
-        <v>5.7400000000000003E-3</v>
+        <v>1.103E-2</v>
       </c>
       <c r="AW25" s="5">
-        <v>6.0899999999999999E-3</v>
+        <v>1.197E-2</v>
       </c>
       <c r="AX25" s="5">
-        <v>6.4799999999999996E-3</v>
+        <v>1.299E-2</v>
       </c>
       <c r="AY25" s="5">
-        <v>6.9199999999999999E-3</v>
+        <v>1.413E-2</v>
       </c>
       <c r="AZ25" s="5">
-        <v>7.4200000000000004E-3</v>
+        <v>1.538E-2</v>
       </c>
       <c r="BA25" s="5">
-        <v>7.9399999999999991E-3</v>
+        <v>1.677E-2</v>
       </c>
       <c r="BB25" s="5">
-        <v>8.5000000000000006E-3</v>
+        <v>1.8290000000000001E-2</v>
       </c>
       <c r="BC25" s="5">
-        <v>9.1000000000000004E-3</v>
+        <v>1.9959999999999999E-2</v>
       </c>
       <c r="BD25" s="5">
-        <v>9.7300000000000008E-3</v>
+        <v>2.1770000000000001E-2</v>
       </c>
       <c r="BE25" s="5">
-        <v>1.038E-2</v>
+        <v>2.3859999999999999E-2</v>
       </c>
       <c r="BF25" s="5">
-        <v>1.1129999999999999E-2</v>
+        <v>2.5930000000000002E-2</v>
       </c>
       <c r="BG25" s="5">
-        <v>1.1939999999999999E-2</v>
+        <v>2.809E-2</v>
       </c>
       <c r="BH25" s="5">
-        <v>1.285E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="BI25" s="5">
-        <v>1.3849999999999999E-2</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="BJ25" s="5">
-        <v>1.498E-2</v>
+        <v>3.4869999999999998E-2</v>
       </c>
       <c r="BK25" s="5">
-        <v>1.618E-2</v>
+        <v>3.7539999999999997E-2</v>
       </c>
       <c r="BL25" s="5">
-        <v>1.7469999999999999E-2</v>
+        <v>4.0529999999999997E-2</v>
       </c>
       <c r="BM25" s="5">
-        <v>1.8839999999999999E-2</v>
+        <v>4.3929999999999997E-2</v>
       </c>
       <c r="BN25" s="5">
-        <v>2.0320000000000001E-2</v>
+        <v>4.7690000000000003E-2</v>
       </c>
       <c r="BO25" s="5">
-        <v>2.188E-2</v>
+        <v>5.2630000000000003E-2</v>
       </c>
       <c r="BP25" s="5">
-        <v>2.3609999999999999E-2</v>
+        <v>5.6759999999999998E-2</v>
       </c>
       <c r="BQ25" s="5">
-        <v>2.5489999999999999E-2</v>
+        <v>6.071E-2</v>
       </c>
       <c r="BR25" s="5">
-        <v>2.7550000000000002E-2</v>
+        <v>6.4310000000000006E-2</v>
       </c>
       <c r="BS25" s="5">
-        <v>2.9850000000000002E-2</v>
+        <v>6.7720000000000002E-2</v>
       </c>
       <c r="BT25" s="5">
-        <v>3.2230000000000002E-2</v>
+        <v>7.0129999999999998E-2</v>
       </c>
       <c r="BU25" s="5">
-        <v>3.524E-2</v>
+        <v>7.4139999999999998E-2</v>
       </c>
       <c r="BV25" s="5">
-        <v>3.8769999999999999E-2</v>
+        <v>7.9170000000000004E-2</v>
       </c>
       <c r="BW25" s="5">
-        <v>4.2950000000000002E-2</v>
+        <v>8.566E-2</v>
       </c>
       <c r="BX25" s="5">
-        <v>4.8500000000000001E-2</v>
+        <v>9.4020000000000006E-2</v>
       </c>
       <c r="BY25" s="5">
-        <v>5.4190000000000002E-2</v>
+        <v>0.10327</v>
       </c>
       <c r="BZ25" s="5">
-        <v>6.0609999999999997E-2</v>
+        <v>0.11345</v>
       </c>
       <c r="CA25" s="5">
-        <v>6.769E-2</v>
+        <v>0.12406</v>
       </c>
       <c r="CB25" s="5">
-        <v>7.5359999999999996E-2</v>
+        <v>0.13453999999999999</v>
       </c>
       <c r="CC25" s="5">
-        <v>8.3599999999999994E-2</v>
+        <v>0.14477999999999999</v>
       </c>
       <c r="CD25" s="5">
-        <v>9.2410000000000006E-2</v>
+        <v>0.15483</v>
       </c>
       <c r="CE25" s="5">
-        <v>0.10176</v>
+        <v>0.16477</v>
       </c>
       <c r="CF25" s="5">
-        <v>0.11166</v>
+        <v>0.17477000000000001</v>
       </c>
       <c r="CG25" s="5">
-        <v>0.12205000000000001</v>
+        <v>0.18496000000000001</v>
       </c>
       <c r="CH25" s="5">
-        <v>0.13288</v>
+        <v>0.19528999999999999</v>
       </c>
       <c r="CI25" s="5">
-        <v>0.14441999999999999</v>
+        <v>0.20624999999999999</v>
       </c>
       <c r="CJ25" s="5">
-        <v>0.15662000000000001</v>
+        <v>0.2177</v>
       </c>
       <c r="CK25" s="5">
-        <v>0.16950000000000001</v>
+        <v>0.22967000000000001</v>
       </c>
       <c r="CL25" s="5">
-        <v>0.18304000000000001</v>
+        <v>0.24215999999999999</v>
       </c>
       <c r="CM25" s="5">
-        <v>0.19724</v>
+        <v>0.25518999999999997</v>
       </c>
       <c r="CN25" s="5">
-        <v>0.21209</v>
+        <v>0.26878999999999997</v>
       </c>
       <c r="CO25" s="5">
-        <v>0.22758</v>
+        <v>0.28294999999999998</v>
       </c>
       <c r="CP25" s="5">
-        <v>0.24367</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="CQ25" s="5">
-        <v>0.26035000000000003</v>
+        <v>0.31303999999999998</v>
       </c>
       <c r="CR25" s="5">
-        <v>0.27757999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="CS25" s="5">
-        <v>0.29532000000000003</v>
+        <v>0.34559000000000001</v>
       </c>
       <c r="CT25" s="5">
-        <v>0.31352000000000002</v>
+        <v>0.36281999999999998</v>
       </c>
       <c r="CU25" s="5">
-        <v>0.33213999999999999</v>
+        <v>0.38069999999999998</v>
       </c>
       <c r="CV25" s="5">
-        <v>0.35110999999999998</v>
+        <v>0.39923999999999998</v>
       </c>
       <c r="CW25" s="5">
-        <v>0.37036999999999998</v>
-      </c>
-      <c r="CX25" s="2">
+        <v>0.41847000000000001</v>
+      </c>
+      <c r="CX25" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8176,307 +8163,307 @@
       <c r="A26" s="3">
         <v>1974</v>
       </c>
-      <c r="B26" s="3">
-        <v>3.6720000000000003E-2</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5.0899999999999999E-3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2.6199999999999999E-3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2.2799999999999999E-3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2.0300000000000001E-3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2.1900000000000001E-3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1.9499999999999999E-3</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1.74E-3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1.56E-3</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.42E-3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1.25E-3</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1.23E-3</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1.2700000000000001E-3</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1.34E-3</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1.64E-3</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1.8E-3</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1.9599999999999999E-3</v>
-      </c>
-      <c r="U26" s="3">
-        <v>2.1299999999999999E-3</v>
+      <c r="B26" s="5">
+        <v>3.7510000000000002E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.97E-3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1.39E-3</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1.39E-3</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1.48E-3</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="R26" s="5">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="S26" s="5">
+        <v>2.48E-3</v>
+      </c>
+      <c r="T26" s="5">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="U26" s="5">
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="V26" s="5">
-        <v>2.5200000000000001E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="W26" s="5">
-        <v>2.6900000000000001E-3</v>
+        <v>3.2299999999999998E-3</v>
       </c>
       <c r="X26" s="5">
-        <v>2.8300000000000001E-3</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="Y26" s="5">
-        <v>2.9099999999999998E-3</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="Z26" s="5">
-        <v>2.9499999999999999E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="AA26" s="5">
-        <v>2.9099999999999998E-3</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="AB26" s="5">
-        <v>2.8999999999999998E-3</v>
+        <v>3.0300000000000001E-3</v>
       </c>
       <c r="AC26" s="5">
-        <v>2.8900000000000002E-3</v>
+        <v>3.0200000000000001E-3</v>
       </c>
       <c r="AD26" s="5">
-        <v>2.8800000000000002E-3</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="AE26" s="5">
-        <v>2.8800000000000002E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="AF26" s="5">
-        <v>2.8900000000000002E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="AG26" s="5">
-        <v>2.9099999999999998E-3</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="AH26" s="5">
-        <v>2.9299999999999999E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="AI26" s="5">
-        <v>2.9499999999999999E-3</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="AJ26" s="5">
-        <v>2.99E-3</v>
+        <v>3.8800000000000002E-3</v>
       </c>
       <c r="AK26" s="5">
-        <v>3.0100000000000001E-3</v>
+        <v>3.9899999999999996E-3</v>
       </c>
       <c r="AL26" s="5">
-        <v>3.0899999999999999E-3</v>
+        <v>4.2199999999999998E-3</v>
       </c>
       <c r="AM26" s="5">
-        <v>3.2100000000000002E-3</v>
+        <v>4.5300000000000002E-3</v>
       </c>
       <c r="AN26" s="5">
-        <v>3.3700000000000002E-3</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="AO26" s="5">
-        <v>3.5699999999999998E-3</v>
+        <v>5.45E-3</v>
       </c>
       <c r="AP26" s="5">
-        <v>3.8500000000000001E-3</v>
+        <v>6.1700000000000001E-3</v>
       </c>
       <c r="AQ26" s="5">
-        <v>4.1099999999999999E-3</v>
+        <v>6.8700000000000002E-3</v>
       </c>
       <c r="AR26" s="5">
-        <v>4.4000000000000003E-3</v>
+        <v>7.6299999999999996E-3</v>
       </c>
       <c r="AS26" s="5">
-        <v>4.6800000000000001E-3</v>
+        <v>8.4200000000000004E-3</v>
       </c>
       <c r="AT26" s="5">
-        <v>4.9699999999999996E-3</v>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="AU26" s="5">
-        <v>5.2500000000000003E-3</v>
+        <v>1.0019999999999999E-2</v>
       </c>
       <c r="AV26" s="5">
-        <v>5.5799999999999999E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="AW26" s="5">
-        <v>5.9300000000000004E-3</v>
+        <v>1.184E-2</v>
       </c>
       <c r="AX26" s="5">
-        <v>6.3299999999999997E-3</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="AY26" s="5">
-        <v>6.7600000000000004E-3</v>
+        <v>1.401E-2</v>
       </c>
       <c r="AZ26" s="5">
-        <v>7.26E-3</v>
+        <v>1.5259999999999999E-2</v>
       </c>
       <c r="BA26" s="5">
-        <v>7.77E-3</v>
+        <v>1.6619999999999999E-2</v>
       </c>
       <c r="BB26" s="5">
-        <v>8.3199999999999993E-3</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="BC26" s="5">
-        <v>8.8900000000000003E-3</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="BD26" s="5">
-        <v>9.5099999999999994E-3</v>
+        <v>2.1440000000000001E-2</v>
       </c>
       <c r="BE26" s="5">
-        <v>1.0120000000000001E-2</v>
+        <v>2.3390000000000001E-2</v>
       </c>
       <c r="BF26" s="5">
-        <v>1.0840000000000001E-2</v>
+        <v>2.538E-2</v>
       </c>
       <c r="BG26" s="5">
-        <v>1.163E-2</v>
+        <v>2.7459999999999998E-2</v>
       </c>
       <c r="BH26" s="5">
-        <v>1.252E-2</v>
+        <v>2.964E-2</v>
       </c>
       <c r="BI26" s="5">
-        <v>1.3509999999999999E-2</v>
+        <v>3.1940000000000003E-2</v>
       </c>
       <c r="BJ26" s="5">
-        <v>1.464E-2</v>
+        <v>3.4290000000000001E-2</v>
       </c>
       <c r="BK26" s="5">
-        <v>1.584E-2</v>
+        <v>3.6990000000000002E-2</v>
       </c>
       <c r="BL26" s="5">
-        <v>1.7139999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="BM26" s="5">
-        <v>1.8530000000000001E-2</v>
+        <v>4.3389999999999998E-2</v>
       </c>
       <c r="BN26" s="5">
-        <v>2.0029999999999999E-2</v>
+        <v>4.7109999999999999E-2</v>
       </c>
       <c r="BO26" s="5">
-        <v>2.163E-2</v>
+        <v>5.1909999999999998E-2</v>
       </c>
       <c r="BP26" s="5">
-        <v>2.3380000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="BQ26" s="5">
-        <v>2.529E-2</v>
+        <v>5.9970000000000002E-2</v>
       </c>
       <c r="BR26" s="5">
-        <v>2.7380000000000002E-2</v>
+        <v>6.3640000000000002E-2</v>
       </c>
       <c r="BS26" s="5">
-        <v>2.9700000000000001E-2</v>
+        <v>6.7180000000000004E-2</v>
       </c>
       <c r="BT26" s="5">
-        <v>3.211E-2</v>
+        <v>6.9879999999999998E-2</v>
       </c>
       <c r="BU26" s="5">
-        <v>3.5110000000000002E-2</v>
+        <v>7.4069999999999997E-2</v>
       </c>
       <c r="BV26" s="5">
-        <v>3.8629999999999998E-2</v>
+        <v>7.9219999999999999E-2</v>
       </c>
       <c r="BW26" s="5">
-        <v>4.2779999999999999E-2</v>
+        <v>8.5779999999999995E-2</v>
       </c>
       <c r="BX26" s="5">
-        <v>4.8250000000000001E-2</v>
+        <v>9.4060000000000005E-2</v>
       </c>
       <c r="BY26" s="5">
-        <v>5.3859999999999998E-2</v>
+        <v>0.10324999999999999</v>
       </c>
       <c r="BZ26" s="5">
-        <v>6.0170000000000001E-2</v>
+        <v>0.11332</v>
       </c>
       <c r="CA26" s="5">
-        <v>6.7129999999999995E-2</v>
+        <v>0.12381</v>
       </c>
       <c r="CB26" s="5">
-        <v>7.467E-2</v>
+        <v>0.13420000000000001</v>
       </c>
       <c r="CC26" s="5">
-        <v>8.2780000000000006E-2</v>
+        <v>0.14437</v>
       </c>
       <c r="CD26" s="5">
-        <v>9.1450000000000004E-2</v>
+        <v>0.15437000000000001</v>
       </c>
       <c r="CE26" s="5">
-        <v>0.10067</v>
+        <v>0.16428000000000001</v>
       </c>
       <c r="CF26" s="5">
-        <v>0.11042</v>
+        <v>0.17426</v>
       </c>
       <c r="CG26" s="5">
-        <v>0.12067</v>
+        <v>0.18440999999999999</v>
       </c>
       <c r="CH26" s="5">
-        <v>0.13136</v>
+        <v>0.19470999999999999</v>
       </c>
       <c r="CI26" s="5">
-        <v>0.14274000000000001</v>
+        <v>0.20563999999999999</v>
       </c>
       <c r="CJ26" s="5">
-        <v>0.15479000000000001</v>
+        <v>0.21706</v>
       </c>
       <c r="CK26" s="5">
-        <v>0.16750000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="CL26" s="5">
-        <v>0.18089</v>
+        <v>0.24146000000000001</v>
       </c>
       <c r="CM26" s="5">
-        <v>0.19492999999999999</v>
+        <v>0.25446999999999997</v>
       </c>
       <c r="CN26" s="5">
-        <v>0.20963000000000001</v>
+        <v>0.26804</v>
       </c>
       <c r="CO26" s="5">
-        <v>0.22495999999999999</v>
+        <v>0.28216999999999998</v>
       </c>
       <c r="CP26" s="5">
-        <v>0.24092</v>
+        <v>0.2969</v>
       </c>
       <c r="CQ26" s="5">
-        <v>0.25746000000000002</v>
+        <v>0.31223000000000001</v>
       </c>
       <c r="CR26" s="5">
-        <v>0.27457999999999999</v>
+        <v>0.32818000000000003</v>
       </c>
       <c r="CS26" s="5">
-        <v>0.29221000000000003</v>
+        <v>0.34475</v>
       </c>
       <c r="CT26" s="5">
-        <v>0.31034</v>
+        <v>0.36198000000000002</v>
       </c>
       <c r="CU26" s="5">
-        <v>0.32890000000000003</v>
+        <v>0.37985999999999998</v>
       </c>
       <c r="CV26" s="5">
-        <v>0.34784999999999999</v>
+        <v>0.39840999999999999</v>
       </c>
       <c r="CW26" s="5">
-        <v>0.36712</v>
-      </c>
-      <c r="CX26" s="2">
+        <v>0.41764000000000001</v>
+      </c>
+      <c r="CX26" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8484,307 +8471,307 @@
       <c r="A27" s="3">
         <v>1975</v>
       </c>
-      <c r="B27" s="3">
-        <v>3.5709999999999999E-2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2.5600000000000002E-3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.9300000000000001E-3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1.83E-3</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1.6299999999999999E-3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1.4599999999999999E-3</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1.33E-3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1.23E-3</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1.1800000000000001E-3</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1.17E-3</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1.2800000000000001E-3</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1.4300000000000001E-3</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1.56E-3</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="B27" s="5">
+        <v>3.6490000000000002E-2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2.32E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="I27" s="5">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="U27" s="3">
-        <v>1.99E-3</v>
+      <c r="J27" s="5">
+        <v>1.66E-3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1.31E-3</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1.4E-3</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="R27" s="5">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="S27" s="5">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="T27" s="5">
+        <v>2.63E-3</v>
+      </c>
+      <c r="U27" s="5">
+        <v>2.82E-3</v>
       </c>
       <c r="V27" s="5">
-        <v>2.32E-3</v>
+        <v>2.97E-3</v>
       </c>
       <c r="W27" s="5">
-        <v>2.4599999999999999E-3</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="X27" s="5">
-        <v>2.5699999999999998E-3</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="Y27" s="5">
-        <v>2.65E-3</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="Z27" s="5">
-        <v>2.7000000000000001E-3</v>
+        <v>3.0899999999999999E-3</v>
       </c>
       <c r="AA27" s="5">
-        <v>2.6900000000000001E-3</v>
+        <v>2.98E-3</v>
       </c>
       <c r="AB27" s="5">
-        <v>2.6900000000000001E-3</v>
+        <v>2.96E-3</v>
       </c>
       <c r="AC27" s="5">
-        <v>2.7000000000000001E-3</v>
+        <v>2.96E-3</v>
       </c>
       <c r="AD27" s="5">
-        <v>2.7100000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE27" s="5">
-        <v>2.7200000000000002E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="AF27" s="5">
-        <v>2.7299999999999998E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="AG27" s="5">
-        <v>2.7499999999999998E-3</v>
+        <v>3.3400000000000001E-3</v>
       </c>
       <c r="AH27" s="5">
-        <v>2.7799999999999999E-3</v>
+        <v>3.49E-3</v>
       </c>
       <c r="AI27" s="5">
-        <v>2.82E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="AJ27" s="5">
-        <v>2.8600000000000001E-3</v>
+        <v>3.8400000000000001E-3</v>
       </c>
       <c r="AK27" s="5">
-        <v>2.9099999999999998E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="AL27" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>4.28E-3</v>
       </c>
       <c r="AM27" s="5">
-        <v>3.1099999999999999E-3</v>
+        <v>4.62E-3</v>
       </c>
       <c r="AN27" s="5">
-        <v>3.2699999999999999E-3</v>
+        <v>5.0299999999999997E-3</v>
       </c>
       <c r="AO27" s="5">
-        <v>3.46E-3</v>
+        <v>5.5300000000000002E-3</v>
       </c>
       <c r="AP27" s="5">
-        <v>3.7100000000000002E-3</v>
+        <v>6.1799999999999997E-3</v>
       </c>
       <c r="AQ27" s="5">
-        <v>3.9500000000000004E-3</v>
+        <v>6.8300000000000001E-3</v>
       </c>
       <c r="AR27" s="5">
-        <v>4.2199999999999998E-3</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="AS27" s="5">
-        <v>4.4999999999999997E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="AT27" s="5">
-        <v>4.79E-3</v>
+        <v>9.0799999999999995E-3</v>
       </c>
       <c r="AU27" s="5">
-        <v>5.0800000000000003E-3</v>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="AV27" s="5">
-        <v>5.4200000000000003E-3</v>
+        <v>1.077E-2</v>
       </c>
       <c r="AW27" s="5">
-        <v>5.7800000000000004E-3</v>
+        <v>1.172E-2</v>
       </c>
       <c r="AX27" s="5">
-        <v>6.1700000000000001E-3</v>
+        <v>1.2760000000000001E-2</v>
       </c>
       <c r="AY27" s="5">
-        <v>6.6100000000000004E-3</v>
+        <v>1.389E-2</v>
       </c>
       <c r="AZ27" s="5">
-        <v>7.1000000000000004E-3</v>
+        <v>1.5140000000000001E-2</v>
       </c>
       <c r="BA27" s="5">
-        <v>7.6E-3</v>
+        <v>1.6469999999999999E-2</v>
       </c>
       <c r="BB27" s="5">
-        <v>8.1399999999999997E-3</v>
+        <v>1.7909999999999999E-2</v>
       </c>
       <c r="BC27" s="5">
-        <v>8.6899999999999998E-3</v>
+        <v>1.9449999999999999E-2</v>
       </c>
       <c r="BD27" s="5">
-        <v>9.2800000000000001E-3</v>
+        <v>2.111E-2</v>
       </c>
       <c r="BE27" s="5">
-        <v>9.8700000000000003E-3</v>
+        <v>2.2929999999999999E-2</v>
       </c>
       <c r="BF27" s="5">
-        <v>1.056E-2</v>
+        <v>2.4830000000000001E-2</v>
       </c>
       <c r="BG27" s="5">
-        <v>1.133E-2</v>
+        <v>2.6849999999999999E-2</v>
       </c>
       <c r="BH27" s="5">
-        <v>1.2200000000000001E-2</v>
+        <v>2.8989999999999998E-2</v>
       </c>
       <c r="BI27" s="5">
-        <v>1.3180000000000001E-2</v>
+        <v>3.1289999999999998E-2</v>
       </c>
       <c r="BJ27" s="5">
-        <v>1.431E-2</v>
+        <v>3.372E-2</v>
       </c>
       <c r="BK27" s="5">
-        <v>1.5509999999999999E-2</v>
+        <v>3.6450000000000003E-2</v>
       </c>
       <c r="BL27" s="5">
-        <v>1.6820000000000002E-2</v>
+        <v>3.9469999999999998E-2</v>
       </c>
       <c r="BM27" s="5">
-        <v>1.822E-2</v>
+        <v>4.2849999999999999E-2</v>
       </c>
       <c r="BN27" s="5">
-        <v>1.9740000000000001E-2</v>
+        <v>4.6530000000000002E-2</v>
       </c>
       <c r="BO27" s="5">
-        <v>2.138E-2</v>
+        <v>5.1209999999999999E-2</v>
       </c>
       <c r="BP27" s="5">
-        <v>2.315E-2</v>
+        <v>5.5259999999999997E-2</v>
       </c>
       <c r="BQ27" s="5">
-        <v>2.5090000000000001E-2</v>
+        <v>5.9229999999999998E-2</v>
       </c>
       <c r="BR27" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>6.2969999999999998E-2</v>
       </c>
       <c r="BS27" s="5">
-        <v>2.955E-2</v>
+        <v>6.6650000000000001E-2</v>
       </c>
       <c r="BT27" s="5">
-        <v>3.1980000000000001E-2</v>
+        <v>6.9639999999999994E-2</v>
       </c>
       <c r="BU27" s="5">
-        <v>3.499E-2</v>
+        <v>7.3980000000000004E-2</v>
       </c>
       <c r="BV27" s="5">
-        <v>3.85E-2</v>
+        <v>7.9259999999999997E-2</v>
       </c>
       <c r="BW27" s="5">
-        <v>4.2610000000000002E-2</v>
+        <v>8.5879999999999998E-2</v>
       </c>
       <c r="BX27" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="BY27" s="5">
-        <v>5.3519999999999998E-2</v>
+        <v>0.10322000000000001</v>
       </c>
       <c r="BZ27" s="5">
-        <v>5.9729999999999998E-2</v>
+        <v>0.11319</v>
       </c>
       <c r="CA27" s="5">
-        <v>6.658E-2</v>
+        <v>0.12356</v>
       </c>
       <c r="CB27" s="5">
-        <v>7.399E-2</v>
+        <v>0.13386000000000001</v>
       </c>
       <c r="CC27" s="5">
-        <v>8.1970000000000001E-2</v>
+        <v>0.14396</v>
       </c>
       <c r="CD27" s="5">
-        <v>9.0509999999999993E-2</v>
+        <v>0.15392</v>
       </c>
       <c r="CE27" s="5">
-        <v>9.9589999999999998E-2</v>
+        <v>0.16381000000000001</v>
       </c>
       <c r="CF27" s="5">
-        <v>0.10920000000000001</v>
+        <v>0.17374999999999999</v>
       </c>
       <c r="CG27" s="5">
-        <v>0.1193</v>
+        <v>0.18387999999999999</v>
       </c>
       <c r="CH27" s="5">
-        <v>0.12984999999999999</v>
+        <v>0.19414999999999999</v>
       </c>
       <c r="CI27" s="5">
-        <v>0.14108000000000001</v>
+        <v>0.20504</v>
       </c>
       <c r="CJ27" s="5">
-        <v>0.15296999999999999</v>
+        <v>0.21643999999999999</v>
       </c>
       <c r="CK27" s="5">
-        <v>0.16552</v>
+        <v>0.22835</v>
       </c>
       <c r="CL27" s="5">
-        <v>0.17874999999999999</v>
+        <v>0.24077999999999999</v>
       </c>
       <c r="CM27" s="5">
-        <v>0.19263</v>
+        <v>0.25375999999999999</v>
       </c>
       <c r="CN27" s="5">
-        <v>0.20716999999999999</v>
+        <v>0.26730999999999999</v>
       </c>
       <c r="CO27" s="5">
-        <v>0.22236</v>
+        <v>0.28142</v>
       </c>
       <c r="CP27" s="5">
-        <v>0.23816999999999999</v>
+        <v>0.29613</v>
       </c>
       <c r="CQ27" s="5">
-        <v>0.25457999999999997</v>
+        <v>0.31143999999999999</v>
       </c>
       <c r="CR27" s="5">
-        <v>0.27157999999999999</v>
+        <v>0.32736999999999999</v>
       </c>
       <c r="CS27" s="5">
-        <v>0.28911999999999999</v>
+        <v>0.34394000000000002</v>
       </c>
       <c r="CT27" s="5">
-        <v>0.30715999999999999</v>
+        <v>0.36115999999999998</v>
       </c>
       <c r="CU27" s="5">
-        <v>0.32567000000000002</v>
+        <v>0.37903999999999999</v>
       </c>
       <c r="CV27" s="5">
-        <v>0.34458</v>
+        <v>0.39760000000000001</v>
       </c>
       <c r="CW27" s="5">
-        <v>0.36386000000000002</v>
-      </c>
-      <c r="CX27" s="2">
+        <v>0.41685</v>
+      </c>
+      <c r="CX27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8792,1539 +8779,1539 @@
       <c r="A28" s="3">
         <v>1976</v>
       </c>
-      <c r="B28" s="3">
-        <v>3.4729999999999997E-2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4.9199999999999999E-3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.1099999999999999E-3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1.9499999999999999E-3</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1.72E-3</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1.5200000000000001E-3</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="B28" s="5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.74E-3</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.56E-3</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1.42E-3</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1.24E-3</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1.25E-3</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1.34E-3</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1.49E-3</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="R28" s="5">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="S28" s="5">
+        <v>2.31E-3</v>
+      </c>
+      <c r="T28" s="5">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="U28" s="5">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="V28" s="5">
+        <v>2.82E-3</v>
+      </c>
+      <c r="W28" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="X28" s="5">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>2.96E-3</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>3.81E-3</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>4.7099999999999998E-3</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>6.1900000000000002E-3</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>7.4599999999999996E-3</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>8.1799999999999998E-3</v>
+      </c>
+      <c r="AT28" s="5">
+        <v>8.94E-3</v>
+      </c>
+      <c r="AU28" s="5">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="AV28" s="5">
+        <v>1.064E-2</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AX28" s="5">
+        <v>1.264E-2</v>
+      </c>
+      <c r="AY28" s="5">
+        <v>1.3769999999999999E-2</v>
+      </c>
+      <c r="AZ28" s="5">
+        <v>1.5010000000000001E-2</v>
+      </c>
+      <c r="BA28" s="5">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="BB28" s="5">
+        <v>1.772E-2</v>
+      </c>
+      <c r="BC28" s="5">
+        <v>1.9210000000000001E-2</v>
+      </c>
+      <c r="BD28" s="5">
+        <v>2.0789999999999999E-2</v>
+      </c>
+      <c r="BE28" s="5">
+        <v>2.248E-2</v>
+      </c>
+      <c r="BF28" s="5">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="BG28" s="5">
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="BH28" s="5">
+        <v>2.8369999999999999E-2</v>
+      </c>
+      <c r="BI28" s="5">
+        <v>3.066E-2</v>
+      </c>
+      <c r="BJ28" s="5">
+        <v>3.3160000000000002E-2</v>
+      </c>
+      <c r="BK28" s="5">
+        <v>3.5909999999999997E-2</v>
+      </c>
+      <c r="BL28" s="5">
+        <v>3.8949999999999999E-2</v>
+      </c>
+      <c r="BM28" s="5">
+        <v>4.2320000000000003E-2</v>
+      </c>
+      <c r="BN28" s="5">
+        <v>4.5969999999999997E-2</v>
+      </c>
+      <c r="BO28" s="5">
+        <v>5.0509999999999999E-2</v>
+      </c>
+      <c r="BP28" s="5">
+        <v>5.4519999999999999E-2</v>
+      </c>
+      <c r="BQ28" s="5">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="BR28" s="5">
+        <v>6.232E-2</v>
+      </c>
+      <c r="BS28" s="5">
+        <v>6.6110000000000002E-2</v>
+      </c>
+      <c r="BT28" s="5">
+        <v>6.9389999999999993E-2</v>
+      </c>
+      <c r="BU28" s="5">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="BV28" s="5">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="BW28" s="5">
+        <v>8.5989999999999997E-2</v>
+      </c>
+      <c r="BX28" s="5">
+        <v>9.4130000000000005E-2</v>
+      </c>
+      <c r="BY28" s="5">
+        <v>0.10319</v>
+      </c>
+      <c r="BZ28" s="5">
+        <v>0.11305</v>
+      </c>
+      <c r="CA28" s="5">
+        <v>0.12332</v>
+      </c>
+      <c r="CB28" s="5">
+        <v>0.13352</v>
+      </c>
+      <c r="CC28" s="5">
+        <v>0.14355999999999999</v>
+      </c>
+      <c r="CD28" s="5">
+        <v>0.15347</v>
+      </c>
+      <c r="CE28" s="5">
+        <v>0.16333</v>
+      </c>
+      <c r="CF28" s="5">
+        <v>0.17324999999999999</v>
+      </c>
+      <c r="CG28" s="5">
+        <v>0.18336</v>
+      </c>
+      <c r="CH28" s="5">
+        <v>0.19359000000000001</v>
+      </c>
+      <c r="CI28" s="5">
+        <v>0.20444999999999999</v>
+      </c>
+      <c r="CJ28" s="5">
+        <v>0.21582000000000001</v>
+      </c>
+      <c r="CK28" s="5">
+        <v>0.22769</v>
+      </c>
+      <c r="CL28" s="5">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="CM28" s="5">
+        <v>0.25306000000000001</v>
+      </c>
+      <c r="CN28" s="5">
+        <v>0.26656999999999997</v>
+      </c>
+      <c r="CO28" s="5">
+        <v>0.28066999999999998</v>
+      </c>
+      <c r="CP28" s="5">
+        <v>0.29536000000000001</v>
+      </c>
+      <c r="CQ28" s="5">
+        <v>0.31064999999999998</v>
+      </c>
+      <c r="CR28" s="5">
+        <v>0.32657000000000003</v>
+      </c>
+      <c r="CS28" s="5">
+        <v>0.34312999999999999</v>
+      </c>
+      <c r="CT28" s="5">
+        <v>0.36033999999999999</v>
+      </c>
+      <c r="CU28" s="5">
+        <v>0.37822</v>
+      </c>
+      <c r="CV28" s="5">
+        <v>0.39678999999999998</v>
+      </c>
+      <c r="CW28" s="5">
+        <v>0.41604999999999998</v>
+      </c>
+      <c r="CX28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1977</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4.7800000000000004E-3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.48E-3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.64E-3</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1.33E-3</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1.17E-3</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1.42E-3</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1.73E-3</v>
+      </c>
+      <c r="R29" s="5">
+        <v>1.97E-3</v>
+      </c>
+      <c r="S29" s="5">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="T29" s="5">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="U29" s="5">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="V29" s="5">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="W29" s="5">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="X29" s="5">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>2.81E-3</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>2.81E-3</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>3.15E-3</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>3.31E-3</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>4.4200000000000003E-3</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="AN29" s="5">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>5.6800000000000002E-3</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>6.1900000000000002E-3</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>6.7600000000000004E-3</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="AS29" s="5">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="AT29" s="5">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="AU29" s="5">
+        <v>9.6299999999999997E-3</v>
+      </c>
+      <c r="AV29" s="5">
+        <v>1.052E-2</v>
+      </c>
+      <c r="AW29" s="5">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="AX29" s="5">
+        <v>1.2529999999999999E-2</v>
+      </c>
+      <c r="AY29" s="5">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="AZ29" s="5">
+        <v>1.489E-2</v>
+      </c>
+      <c r="BA29" s="5">
+        <v>1.618E-2</v>
+      </c>
+      <c r="BB29" s="5">
+        <v>1.753E-2</v>
+      </c>
+      <c r="BC29" s="5">
+        <v>1.8960000000000001E-2</v>
+      </c>
+      <c r="BD29" s="5">
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="BE29" s="5">
+        <v>2.2040000000000001E-2</v>
+      </c>
+      <c r="BF29" s="5">
+        <v>2.3779999999999999E-2</v>
+      </c>
+      <c r="BG29" s="5">
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="BH29" s="5">
+        <v>2.775E-2</v>
+      </c>
+      <c r="BI29" s="5">
+        <v>3.0040000000000001E-2</v>
+      </c>
+      <c r="BJ29" s="5">
+        <v>3.261E-2</v>
+      </c>
+      <c r="BK29" s="5">
+        <v>3.5380000000000002E-2</v>
+      </c>
+      <c r="BL29" s="5">
+        <v>3.8440000000000002E-2</v>
+      </c>
+      <c r="BM29" s="5">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="BN29" s="5">
+        <v>4.5409999999999999E-2</v>
+      </c>
+      <c r="BO29" s="5">
+        <v>4.9820000000000003E-2</v>
+      </c>
+      <c r="BP29" s="5">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="BQ29" s="5">
+        <v>5.7779999999999998E-2</v>
+      </c>
+      <c r="BR29" s="5">
+        <v>6.166E-2</v>
+      </c>
+      <c r="BS29" s="5">
+        <v>6.5579999999999999E-2</v>
+      </c>
+      <c r="BT29" s="5">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="BU29" s="5">
+        <v>7.3810000000000001E-2</v>
+      </c>
+      <c r="BV29" s="5">
+        <v>7.9350000000000004E-2</v>
+      </c>
+      <c r="BW29" s="5">
+        <v>8.609E-2</v>
+      </c>
+      <c r="BX29" s="5">
+        <v>9.4159999999999994E-2</v>
+      </c>
+      <c r="BY29" s="5">
+        <v>0.10316</v>
+      </c>
+      <c r="BZ29" s="5">
+        <v>0.11292000000000001</v>
+      </c>
+      <c r="CA29" s="5">
+        <v>0.12307</v>
+      </c>
+      <c r="CB29" s="5">
+        <v>0.13317999999999999</v>
+      </c>
+      <c r="CC29" s="5">
+        <v>0.14315</v>
+      </c>
+      <c r="CD29" s="5">
+        <v>0.15301999999999999</v>
+      </c>
+      <c r="CE29" s="5">
+        <v>0.16284999999999999</v>
+      </c>
+      <c r="CF29" s="5">
+        <v>0.17274999999999999</v>
+      </c>
+      <c r="CG29" s="5">
+        <v>0.18282999999999999</v>
+      </c>
+      <c r="CH29" s="5">
+        <v>0.19302</v>
+      </c>
+      <c r="CI29" s="5">
+        <v>0.20386000000000001</v>
+      </c>
+      <c r="CJ29" s="5">
+        <v>0.21518999999999999</v>
+      </c>
+      <c r="CK29" s="5">
+        <v>0.22703999999999999</v>
+      </c>
+      <c r="CL29" s="5">
+        <v>0.23941999999999999</v>
+      </c>
+      <c r="CM29" s="5">
+        <v>0.25235000000000002</v>
+      </c>
+      <c r="CN29" s="5">
+        <v>0.26584000000000002</v>
+      </c>
+      <c r="CO29" s="5">
+        <v>0.27990999999999999</v>
+      </c>
+      <c r="CP29" s="5">
+        <v>0.29458000000000001</v>
+      </c>
+      <c r="CQ29" s="5">
+        <v>0.30986000000000002</v>
+      </c>
+      <c r="CR29" s="5">
+        <v>0.32575999999999999</v>
+      </c>
+      <c r="CS29" s="5">
+        <v>0.34231</v>
+      </c>
+      <c r="CT29" s="5">
+        <v>0.35952000000000001</v>
+      </c>
+      <c r="CU29" s="5">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="CV29" s="5">
+        <v>0.39596999999999999</v>
+      </c>
+      <c r="CW29" s="5">
+        <v>0.41525000000000001</v>
+      </c>
+      <c r="CX29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3.3590000000000002E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.98E-3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1.74E-3</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1.25E-3</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1.14E-3</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1.66E-3</v>
+      </c>
+      <c r="R30" s="5">
+        <v>1.9E-3</v>
+      </c>
+      <c r="S30" s="5">
+        <v>2.14E-3</v>
+      </c>
+      <c r="T30" s="5">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="U30" s="5">
+        <v>2.48E-3</v>
+      </c>
+      <c r="V30" s="5">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="W30" s="5">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="X30" s="5">
+        <v>2.65E-3</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>4.4799999999999996E-3</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>5.3099999999999996E-3</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>6.7200000000000003E-3</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="AS30" s="5">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="AT30" s="5">
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="AU30" s="5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="AV30" s="5">
+        <v>1.039E-2</v>
+      </c>
+      <c r="AW30" s="5">
+        <v>1.137E-2</v>
+      </c>
+      <c r="AX30" s="5">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="AY30" s="5">
+        <v>1.353E-2</v>
+      </c>
+      <c r="AZ30" s="5">
+        <v>1.477E-2</v>
+      </c>
+      <c r="BA30" s="5">
+        <v>1.6029999999999999E-2</v>
+      </c>
+      <c r="BB30" s="5">
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="BC30" s="5">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="BD30" s="5">
+        <v>2.017E-2</v>
+      </c>
+      <c r="BE30" s="5">
+        <v>2.1610000000000001E-2</v>
+      </c>
+      <c r="BF30" s="5">
+        <v>2.3269999999999999E-2</v>
+      </c>
+      <c r="BG30" s="5">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="BH30" s="5">
+        <v>2.7150000000000001E-2</v>
+      </c>
+      <c r="BI30" s="5">
+        <v>2.9430000000000001E-2</v>
+      </c>
+      <c r="BJ30" s="5">
+        <v>3.2059999999999998E-2</v>
+      </c>
+      <c r="BK30" s="5">
+        <v>3.4869999999999998E-2</v>
+      </c>
+      <c r="BL30" s="5">
+        <v>3.7940000000000002E-2</v>
+      </c>
+      <c r="BM30" s="5">
+        <v>4.1279999999999997E-2</v>
+      </c>
+      <c r="BN30" s="5">
+        <v>4.4859999999999997E-2</v>
+      </c>
+      <c r="BO30" s="5">
+        <v>4.9149999999999999E-2</v>
+      </c>
+      <c r="BP30" s="5">
+        <v>5.3089999999999998E-2</v>
+      </c>
+      <c r="BQ30" s="5">
+        <v>5.7070000000000003E-2</v>
+      </c>
+      <c r="BR30" s="5">
+        <v>6.1019999999999998E-2</v>
+      </c>
+      <c r="BS30" s="5">
+        <v>6.5060000000000007E-2</v>
+      </c>
+      <c r="BT30" s="5">
+        <v>6.8909999999999999E-2</v>
+      </c>
+      <c r="BU30" s="5">
+        <v>7.3730000000000004E-2</v>
+      </c>
+      <c r="BV30" s="5">
+        <v>7.9390000000000002E-2</v>
+      </c>
+      <c r="BW30" s="5">
+        <v>8.6190000000000003E-2</v>
+      </c>
+      <c r="BX30" s="5">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="BY30" s="5">
+        <v>0.10313</v>
+      </c>
+      <c r="BZ30" s="5">
+        <v>0.11279</v>
+      </c>
+      <c r="CA30" s="5">
+        <v>0.12282999999999999</v>
+      </c>
+      <c r="CB30" s="5">
+        <v>0.13284000000000001</v>
+      </c>
+      <c r="CC30" s="5">
+        <v>0.14274999999999999</v>
+      </c>
+      <c r="CD30" s="5">
+        <v>0.15257000000000001</v>
+      </c>
+      <c r="CE30" s="5">
+        <v>0.16238</v>
+      </c>
+      <c r="CF30" s="5">
+        <v>0.17224999999999999</v>
+      </c>
+      <c r="CG30" s="5">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="CH30" s="5">
+        <v>0.19245999999999999</v>
+      </c>
+      <c r="CI30" s="5">
+        <v>0.20326</v>
+      </c>
+      <c r="CJ30" s="5">
+        <v>0.21457000000000001</v>
+      </c>
+      <c r="CK30" s="5">
+        <v>0.22639000000000001</v>
+      </c>
+      <c r="CL30" s="5">
+        <v>0.23874000000000001</v>
+      </c>
+      <c r="CM30" s="5">
+        <v>0.25163999999999997</v>
+      </c>
+      <c r="CN30" s="5">
+        <v>0.26511000000000001</v>
+      </c>
+      <c r="CO30" s="5">
+        <v>0.27915000000000001</v>
+      </c>
+      <c r="CP30" s="5">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="CQ30" s="5">
+        <v>0.30906</v>
+      </c>
+      <c r="CR30" s="5">
+        <v>0.32495000000000002</v>
+      </c>
+      <c r="CS30" s="5">
+        <v>0.34149000000000002</v>
+      </c>
+      <c r="CT30" s="5">
+        <v>0.35869000000000001</v>
+      </c>
+      <c r="CU30" s="5">
+        <v>0.37658000000000003</v>
+      </c>
+      <c r="CV30" s="5">
+        <v>0.39515</v>
+      </c>
+      <c r="CW30" s="5">
+        <v>0.41443999999999998</v>
+      </c>
+      <c r="CX30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3.2680000000000001E-2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1.64E-3</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1.07E-3</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1.07E-3</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1.16E-3</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1.83E-3</v>
+      </c>
+      <c r="S31" s="5">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="T31" s="5">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="U31" s="5">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="V31" s="5">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="W31" s="5">
+        <v>2.47E-3</v>
+      </c>
+      <c r="X31" s="5">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>2.63E-3</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>2.98E-3</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>3.15E-3</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>3.6900000000000001E-3</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>4.1399999999999996E-3</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>5.4099999999999999E-3</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>5.8399999999999997E-3</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>6.2100000000000002E-3</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="AR31" s="5">
+        <v>7.2100000000000003E-3</v>
+      </c>
+      <c r="AS31" s="5">
+        <v>7.8200000000000006E-3</v>
+      </c>
+      <c r="AT31" s="5">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="AU31" s="5">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="AV31" s="5">
+        <v>1.027E-2</v>
+      </c>
+      <c r="AW31" s="5">
+        <v>1.125E-2</v>
+      </c>
+      <c r="AX31" s="5">
+        <v>1.23E-2</v>
+      </c>
+      <c r="AY31" s="5">
+        <v>1.341E-2</v>
+      </c>
+      <c r="AZ31" s="5">
+        <v>1.465E-2</v>
+      </c>
+      <c r="BA31" s="5">
+        <v>1.5890000000000001E-2</v>
+      </c>
+      <c r="BB31" s="5">
+        <v>1.7170000000000001E-2</v>
+      </c>
+      <c r="BC31" s="5">
+        <v>1.8489999999999999E-2</v>
+      </c>
+      <c r="BD31" s="5">
+        <v>1.9859999999999999E-2</v>
+      </c>
+      <c r="BE31" s="5">
+        <v>2.1180000000000001E-2</v>
+      </c>
+      <c r="BF31" s="5">
+        <v>2.2769999999999999E-2</v>
+      </c>
+      <c r="BG31" s="5">
+        <v>2.4539999999999999E-2</v>
+      </c>
+      <c r="BH31" s="5">
+        <v>2.656E-2</v>
+      </c>
+      <c r="BI31" s="5">
+        <v>2.8840000000000001E-2</v>
+      </c>
+      <c r="BJ31" s="5">
+        <v>3.1530000000000002E-2</v>
+      </c>
+      <c r="BK31" s="5">
+        <v>3.4360000000000002E-2</v>
+      </c>
+      <c r="BL31" s="5">
+        <v>3.7440000000000001E-2</v>
+      </c>
+      <c r="BM31" s="5">
+        <v>4.0770000000000001E-2</v>
+      </c>
+      <c r="BN31" s="5">
+        <v>4.4319999999999998E-2</v>
+      </c>
+      <c r="BO31" s="5">
+        <v>4.8480000000000002E-2</v>
+      </c>
+      <c r="BP31" s="5">
+        <v>5.2380000000000003E-2</v>
+      </c>
+      <c r="BQ31" s="5">
+        <v>5.6370000000000003E-2</v>
+      </c>
+      <c r="BR31" s="5">
+        <v>6.0389999999999999E-2</v>
+      </c>
+      <c r="BS31" s="5">
+        <v>6.454E-2</v>
+      </c>
+      <c r="BT31" s="5">
+        <v>6.8659999999999999E-2</v>
+      </c>
+      <c r="BU31" s="5">
+        <v>7.3639999999999997E-2</v>
+      </c>
+      <c r="BV31" s="5">
+        <v>7.9430000000000001E-2</v>
+      </c>
+      <c r="BW31" s="5">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="BX31" s="5">
+        <v>9.4229999999999994E-2</v>
+      </c>
+      <c r="BY31" s="5">
+        <v>0.1031</v>
+      </c>
+      <c r="BZ31" s="5">
+        <v>0.11266</v>
+      </c>
+      <c r="CA31" s="5">
+        <v>0.12257999999999999</v>
+      </c>
+      <c r="CB31" s="5">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="CC31" s="5">
+        <v>0.14235</v>
+      </c>
+      <c r="CD31" s="5">
+        <v>0.15212999999999999</v>
+      </c>
+      <c r="CE31" s="5">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="CF31" s="5">
+        <v>0.17176</v>
+      </c>
+      <c r="CG31" s="5">
+        <v>0.18176999999999999</v>
+      </c>
+      <c r="CH31" s="5">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="CI31" s="5">
+        <v>0.20266999999999999</v>
+      </c>
+      <c r="CJ31" s="5">
+        <v>0.21393999999999999</v>
+      </c>
+      <c r="CK31" s="5">
+        <v>0.22572999999999999</v>
+      </c>
+      <c r="CL31" s="5">
+        <v>0.23805999999999999</v>
+      </c>
+      <c r="CM31" s="5">
+        <v>0.25092999999999999</v>
+      </c>
+      <c r="CN31" s="5">
+        <v>0.26436999999999999</v>
+      </c>
+      <c r="CO31" s="5">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="CP31" s="5">
+        <v>0.29302</v>
+      </c>
+      <c r="CQ31" s="5">
+        <v>0.30825999999999998</v>
+      </c>
+      <c r="CR31" s="5">
+        <v>0.32413999999999998</v>
+      </c>
+      <c r="CS31" s="5">
+        <v>0.34066999999999997</v>
+      </c>
+      <c r="CT31" s="5">
+        <v>0.35787000000000002</v>
+      </c>
+      <c r="CU31" s="5">
+        <v>0.37574999999999997</v>
+      </c>
+      <c r="CV31" s="5">
+        <v>0.39433000000000001</v>
+      </c>
+      <c r="CW31" s="5">
+        <v>0.41363</v>
+      </c>
+      <c r="CX31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1980</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3.0450000000000001E-2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.91E-3</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1.56E-3</v>
+      </c>
+      <c r="I32" s="5">
         <v>1.3699999999999999E-3</v>
       </c>
-      <c r="K28" s="3">
-        <v>1.25E-3</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1.16E-3</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1.15E-3</v>
-      </c>
-      <c r="P28" s="3">
+      <c r="J32" s="5">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="Q28" s="3">
-        <v>1.3699999999999999E-3</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1.49E-3</v>
-      </c>
-      <c r="S28" s="3">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="T28" s="3">
+      <c r="K32" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="L32" s="5">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="M32" s="5">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="N32" s="5">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1.07E-3</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="R32" s="5">
         <v>1.75E-3</v>
       </c>
-      <c r="U28" s="3">
-        <v>1.8600000000000001E-3</v>
-      </c>
-      <c r="V28" s="5">
-        <v>2.14E-3</v>
-      </c>
-      <c r="W28" s="5">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="X28" s="5">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="Y28" s="5">
-        <v>2.4099999999999998E-3</v>
-      </c>
-      <c r="Z28" s="5">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="AA28" s="5">
+      <c r="S32" s="5">
+        <v>1.98E-3</v>
+      </c>
+      <c r="T32" s="5">
+        <v>2.16E-3</v>
+      </c>
+      <c r="U32" s="5">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="V32" s="5">
+        <v>2.33E-3</v>
+      </c>
+      <c r="W32" s="5">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="X32" s="5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="Z32" s="5">
         <v>2.48E-3</v>
       </c>
-      <c r="AB28" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="AC28" s="5">
+      <c r="AA32" s="5">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="AD28" s="5">
-        <v>2.5400000000000002E-3</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>2.5600000000000002E-3</v>
-      </c>
-      <c r="AF28" s="5">
+      <c r="AB32" s="5">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="AG28" s="5">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="AH28" s="5">
-        <v>2.64E-3</v>
-      </c>
-      <c r="AI28" s="5">
+      <c r="AC32" s="5">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="AD32" s="5">
         <v>2.6800000000000001E-3</v>
       </c>
-      <c r="AJ28" s="5">
-        <v>2.7399999999999998E-3</v>
-      </c>
-      <c r="AK28" s="5">
-        <v>2.81E-3</v>
-      </c>
-      <c r="AL28" s="5">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>3.0200000000000001E-3</v>
-      </c>
-      <c r="AN28" s="5">
-        <v>3.1700000000000001E-3</v>
-      </c>
-      <c r="AO28" s="5">
-        <v>3.3500000000000001E-3</v>
-      </c>
-      <c r="AP28" s="5">
-        <v>3.5699999999999998E-3</v>
-      </c>
-      <c r="AQ28" s="5">
-        <v>3.8E-3</v>
-      </c>
-      <c r="AR28" s="5">
-        <v>4.0499999999999998E-3</v>
-      </c>
-      <c r="AS28" s="5">
-        <v>4.3200000000000001E-3</v>
-      </c>
-      <c r="AT28" s="5">
-        <v>4.6100000000000004E-3</v>
-      </c>
-      <c r="AU28" s="5">
-        <v>4.9199999999999999E-3</v>
-      </c>
-      <c r="AV28" s="5">
-        <v>5.2599999999999999E-3</v>
-      </c>
-      <c r="AW28" s="5">
-        <v>5.6299999999999996E-3</v>
-      </c>
-      <c r="AX28" s="5">
-        <v>6.0299999999999998E-3</v>
-      </c>
-      <c r="AY28" s="5">
-        <v>6.4599999999999996E-3</v>
-      </c>
-      <c r="AZ28" s="5">
-        <v>6.9499999999999996E-3</v>
-      </c>
-      <c r="BA28" s="5">
-        <v>7.4400000000000004E-3</v>
-      </c>
-      <c r="BB28" s="5">
-        <v>7.9600000000000001E-3</v>
-      </c>
-      <c r="BC28" s="5">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="BD28" s="5">
-        <v>9.0600000000000003E-3</v>
-      </c>
-      <c r="BE28" s="5">
-        <v>9.6200000000000001E-3</v>
-      </c>
-      <c r="BF28" s="5">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="BG28" s="5">
-        <v>1.1039999999999999E-2</v>
-      </c>
-      <c r="BH28" s="5">
-        <v>1.189E-2</v>
-      </c>
-      <c r="BI28" s="5">
-        <v>1.286E-2</v>
-      </c>
-      <c r="BJ28" s="5">
-        <v>1.3979999999999999E-2</v>
-      </c>
-      <c r="BK28" s="5">
-        <v>1.519E-2</v>
-      </c>
-      <c r="BL28" s="5">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="BM28" s="5">
-        <v>1.7919999999999998E-2</v>
-      </c>
-      <c r="BN28" s="5">
-        <v>1.9460000000000002E-2</v>
-      </c>
-      <c r="BO28" s="5">
-        <v>2.1129999999999999E-2</v>
-      </c>
-      <c r="BP28" s="5">
-        <v>2.2929999999999999E-2</v>
-      </c>
-      <c r="BQ28" s="5">
-        <v>2.4889999999999999E-2</v>
-      </c>
-      <c r="BR28" s="5">
-        <v>2.7029999999999998E-2</v>
-      </c>
-      <c r="BS28" s="5">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="BT28" s="5">
-        <v>3.1859999999999999E-2</v>
-      </c>
-      <c r="BU28" s="5">
-        <v>3.4869999999999998E-2</v>
-      </c>
-      <c r="BV28" s="5">
-        <v>3.8359999999999998E-2</v>
-      </c>
-      <c r="BW28" s="5">
-        <v>4.2439999999999999E-2</v>
-      </c>
-      <c r="BX28" s="5">
-        <v>4.7750000000000001E-2</v>
-      </c>
-      <c r="BY28" s="5">
-        <v>5.3190000000000001E-2</v>
-      </c>
-      <c r="BZ28" s="5">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="CA28" s="5">
-        <v>6.6030000000000005E-2</v>
-      </c>
-      <c r="CB28" s="5">
-        <v>7.3319999999999996E-2</v>
-      </c>
-      <c r="CC28" s="5">
-        <v>8.1170000000000006E-2</v>
-      </c>
-      <c r="CD28" s="5">
-        <v>8.9569999999999997E-2</v>
-      </c>
-      <c r="CE28" s="5">
-        <v>9.8519999999999996E-2</v>
-      </c>
-      <c r="CF28" s="5">
-        <v>0.10799</v>
-      </c>
-      <c r="CG28" s="5">
-        <v>0.11795</v>
-      </c>
-      <c r="CH28" s="5">
-        <v>0.12834000000000001</v>
-      </c>
-      <c r="CI28" s="5">
-        <v>0.13941999999999999</v>
-      </c>
-      <c r="CJ28" s="5">
-        <v>0.15115999999999999</v>
-      </c>
-      <c r="CK28" s="5">
-        <v>0.16356000000000001</v>
-      </c>
-      <c r="CL28" s="5">
-        <v>0.17662</v>
-      </c>
-      <c r="CM28" s="5">
-        <v>0.19034000000000001</v>
-      </c>
-      <c r="CN28" s="5">
-        <v>0.20473</v>
-      </c>
-      <c r="CO28" s="5">
-        <v>0.21976000000000001</v>
-      </c>
-      <c r="CP28" s="5">
-        <v>0.23543</v>
-      </c>
-      <c r="CQ28" s="5">
-        <v>0.25170999999999999</v>
-      </c>
-      <c r="CR28" s="5">
-        <v>0.26859</v>
-      </c>
-      <c r="CS28" s="5">
-        <v>0.28602</v>
-      </c>
-      <c r="CT28" s="5">
-        <v>0.30398999999999998</v>
-      </c>
-      <c r="CU28" s="5">
-        <v>0.32242999999999999</v>
-      </c>
-      <c r="CV28" s="5">
-        <v>0.34132000000000001</v>
-      </c>
-      <c r="CW28" s="5">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="CX28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1977</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3.4529999999999998E-2</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="AE32" s="5">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>3.31E-3</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>3.98E-3</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="AM32" s="5">
         <v>4.7800000000000004E-3</v>
       </c>
-      <c r="D29" s="2">
-        <v>2.48E-3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.1800000000000001E-3</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.9400000000000001E-3</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2.0899999999999998E-3</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1.8500000000000001E-3</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1.64E-3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1.4599999999999999E-3</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1.33E-3</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1.17E-3</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1.1900000000000001E-3</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1.2700000000000001E-3</v>
-      </c>
-      <c r="P29" s="2">
-        <v>1.42E-3</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1.73E-3</v>
-      </c>
-      <c r="R29" s="2">
-        <v>1.97E-3</v>
-      </c>
-      <c r="S29" s="2">
-        <v>2.2200000000000002E-3</v>
-      </c>
-      <c r="T29" s="2">
-        <v>2.4299999999999999E-3</v>
-      </c>
-      <c r="U29" s="2">
-        <v>2.5899999999999999E-3</v>
-      </c>
-      <c r="V29" s="2">
-        <v>2.6800000000000001E-3</v>
-      </c>
-      <c r="W29" s="2">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="X29" s="2">
-        <v>2.7899999999999999E-3</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>2.81E-3</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>2.8300000000000001E-3</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>2.81E-3</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>2.8800000000000002E-3</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>2.9499999999999999E-3</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>3.0300000000000001E-3</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>3.15E-3</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>3.31E-3</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>3.5200000000000001E-3</v>
-      </c>
-      <c r="AJ29" s="2">
-        <v>3.7699999999999999E-3</v>
-      </c>
-      <c r="AK29" s="2">
-        <v>4.0800000000000003E-3</v>
-      </c>
-      <c r="AL29" s="2">
-        <v>4.4200000000000003E-3</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="AN29" s="2">
+      <c r="AN32" s="5">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="AO29" s="2">
-        <v>5.6800000000000002E-3</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>6.1900000000000002E-3</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>6.7600000000000004E-3</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>7.3800000000000003E-3</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>8.0599999999999995E-3</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>9.6299999999999997E-3</v>
-      </c>
-      <c r="AV29" s="2">
-        <v>1.052E-2</v>
-      </c>
-      <c r="AW29" s="2">
-        <v>1.1480000000000001E-2</v>
-      </c>
-      <c r="AX29" s="2">
-        <v>1.2529999999999999E-2</v>
-      </c>
-      <c r="AY29" s="2">
-        <v>1.3650000000000001E-2</v>
-      </c>
-      <c r="AZ29" s="2">
-        <v>1.489E-2</v>
-      </c>
-      <c r="BA29" s="2">
-        <v>1.618E-2</v>
-      </c>
-      <c r="BB29" s="2">
-        <v>1.753E-2</v>
-      </c>
-      <c r="BC29" s="2">
-        <v>1.8960000000000001E-2</v>
-      </c>
-      <c r="BD29" s="2">
-        <v>2.0480000000000002E-2</v>
-      </c>
-      <c r="BE29" s="2">
-        <v>2.2040000000000001E-2</v>
-      </c>
-      <c r="BF29" s="2">
-        <v>2.3779999999999999E-2</v>
-      </c>
-      <c r="BG29" s="2">
-        <v>2.5669999999999998E-2</v>
-      </c>
-      <c r="BH29" s="2">
-        <v>2.775E-2</v>
-      </c>
-      <c r="BI29" s="2">
-        <v>3.0040000000000001E-2</v>
-      </c>
-      <c r="BJ29" s="2">
-        <v>3.261E-2</v>
-      </c>
-      <c r="BK29" s="2">
-        <v>3.5380000000000002E-2</v>
-      </c>
-      <c r="BL29" s="2">
-        <v>3.8440000000000002E-2</v>
-      </c>
-      <c r="BM29" s="2">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="BN29" s="2">
-        <v>4.5409999999999999E-2</v>
-      </c>
-      <c r="BO29" s="2">
-        <v>4.9820000000000003E-2</v>
-      </c>
-      <c r="BP29" s="2">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="BQ29" s="2">
-        <v>5.7779999999999998E-2</v>
-      </c>
-      <c r="BR29" s="2">
-        <v>6.166E-2</v>
-      </c>
-      <c r="BS29" s="2">
-        <v>6.5579999999999999E-2</v>
-      </c>
-      <c r="BT29" s="2">
-        <v>6.9150000000000003E-2</v>
-      </c>
-      <c r="BU29" s="2">
-        <v>7.3810000000000001E-2</v>
-      </c>
-      <c r="BV29" s="2">
-        <v>7.9350000000000004E-2</v>
-      </c>
-      <c r="BW29" s="2">
-        <v>8.609E-2</v>
-      </c>
-      <c r="BX29" s="2">
-        <v>9.4159999999999994E-2</v>
-      </c>
-      <c r="BY29" s="2">
-        <v>0.10316</v>
-      </c>
-      <c r="BZ29" s="2">
-        <v>0.11292000000000001</v>
-      </c>
-      <c r="CA29" s="2">
-        <v>0.12307</v>
-      </c>
-      <c r="CB29" s="2">
-        <v>0.13317999999999999</v>
-      </c>
-      <c r="CC29" s="2">
-        <v>0.14315</v>
-      </c>
-      <c r="CD29" s="2">
-        <v>0.15301999999999999</v>
-      </c>
-      <c r="CE29" s="2">
-        <v>0.16284999999999999</v>
-      </c>
-      <c r="CF29" s="2">
-        <v>0.17274999999999999</v>
-      </c>
-      <c r="CG29" s="2">
-        <v>0.18282999999999999</v>
-      </c>
-      <c r="CH29" s="2">
-        <v>0.19302</v>
-      </c>
-      <c r="CI29" s="2">
-        <v>0.20386000000000001</v>
-      </c>
-      <c r="CJ29" s="2">
-        <v>0.21518999999999999</v>
-      </c>
-      <c r="CK29" s="2">
-        <v>0.22703999999999999</v>
-      </c>
-      <c r="CL29" s="2">
-        <v>0.23941999999999999</v>
-      </c>
-      <c r="CM29" s="2">
-        <v>0.25235000000000002</v>
-      </c>
-      <c r="CN29" s="2">
-        <v>0.26584000000000002</v>
-      </c>
-      <c r="CO29" s="2">
-        <v>0.27990999999999999</v>
-      </c>
-      <c r="CP29" s="2">
-        <v>0.29458000000000001</v>
-      </c>
-      <c r="CQ29" s="2">
-        <v>0.30986000000000002</v>
-      </c>
-      <c r="CR29" s="2">
-        <v>0.32575999999999999</v>
-      </c>
-      <c r="CS29" s="2">
-        <v>0.34231</v>
-      </c>
-      <c r="CT29" s="2">
-        <v>0.35952000000000001</v>
-      </c>
-      <c r="CU29" s="2">
-        <v>0.37740000000000001</v>
-      </c>
-      <c r="CV29" s="2">
-        <v>0.39596999999999999</v>
-      </c>
-      <c r="CW29" s="2">
-        <v>0.41525000000000001</v>
-      </c>
-      <c r="CX29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>1978</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3.3590000000000002E-2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4.6899999999999997E-3</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1.8600000000000001E-3</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1.98E-3</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1.74E-3</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1.5399999999999999E-3</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1.25E-3</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1.14E-3</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="P30" s="2">
-        <v>1.3600000000000001E-3</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>1.66E-3</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1.9E-3</v>
-      </c>
-      <c r="S30" s="2">
-        <v>2.14E-3</v>
-      </c>
-      <c r="T30" s="2">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="U30" s="2">
-        <v>2.48E-3</v>
-      </c>
-      <c r="V30" s="2">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="W30" s="2">
-        <v>2.6099999999999999E-3</v>
-      </c>
-      <c r="X30" s="2">
-        <v>2.65E-3</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>2.6800000000000001E-3</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>2.7100000000000002E-3</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>2.7100000000000002E-3</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>2.7399999999999998E-3</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>2.7799999999999999E-3</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>2.8300000000000001E-3</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>2.9399999999999999E-3</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>3.0599999999999998E-3</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>3.2299999999999998E-3</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>3.4499999999999999E-3</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>3.7299999999999998E-3</v>
-      </c>
-      <c r="AK30" s="2">
-        <v>4.1099999999999999E-3</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>4.4799999999999996E-3</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>4.8900000000000002E-3</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>5.3099999999999996E-3</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>5.7600000000000004E-3</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>6.7200000000000003E-3</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>7.2899999999999996E-3</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>7.9399999999999991E-3</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>8.6599999999999993E-3</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="AV30" s="2">
-        <v>1.039E-2</v>
-      </c>
-      <c r="AW30" s="2">
-        <v>1.137E-2</v>
-      </c>
-      <c r="AX30" s="2">
-        <v>1.2409999999999999E-2</v>
-      </c>
-      <c r="AY30" s="2">
-        <v>1.353E-2</v>
-      </c>
-      <c r="AZ30" s="2">
-        <v>1.477E-2</v>
-      </c>
-      <c r="BA30" s="2">
-        <v>1.6029999999999999E-2</v>
-      </c>
-      <c r="BB30" s="2">
-        <v>1.7350000000000001E-2</v>
-      </c>
-      <c r="BC30" s="2">
-        <v>1.8720000000000001E-2</v>
-      </c>
-      <c r="BD30" s="2">
-        <v>2.017E-2</v>
-      </c>
-      <c r="BE30" s="2">
-        <v>2.1610000000000001E-2</v>
-      </c>
-      <c r="BF30" s="2">
-        <v>2.3269999999999999E-2</v>
-      </c>
-      <c r="BG30" s="2">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="BH30" s="2">
-        <v>2.7150000000000001E-2</v>
-      </c>
-      <c r="BI30" s="2">
-        <v>2.9430000000000001E-2</v>
-      </c>
-      <c r="BJ30" s="2">
-        <v>3.2059999999999998E-2</v>
-      </c>
-      <c r="BK30" s="2">
-        <v>3.4869999999999998E-2</v>
-      </c>
-      <c r="BL30" s="2">
-        <v>3.7940000000000002E-2</v>
-      </c>
-      <c r="BM30" s="2">
-        <v>4.1279999999999997E-2</v>
-      </c>
-      <c r="BN30" s="2">
-        <v>4.4859999999999997E-2</v>
-      </c>
-      <c r="BO30" s="2">
-        <v>4.9149999999999999E-2</v>
-      </c>
-      <c r="BP30" s="2">
-        <v>5.3089999999999998E-2</v>
-      </c>
-      <c r="BQ30" s="2">
-        <v>5.7070000000000003E-2</v>
-      </c>
-      <c r="BR30" s="2">
-        <v>6.1019999999999998E-2</v>
-      </c>
-      <c r="BS30" s="2">
-        <v>6.5060000000000007E-2</v>
-      </c>
-      <c r="BT30" s="2">
-        <v>6.8909999999999999E-2</v>
-      </c>
-      <c r="BU30" s="2">
-        <v>7.3730000000000004E-2</v>
-      </c>
-      <c r="BV30" s="2">
-        <v>7.9390000000000002E-2</v>
-      </c>
-      <c r="BW30" s="2">
-        <v>8.6190000000000003E-2</v>
-      </c>
-      <c r="BX30" s="2">
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="BY30" s="2">
-        <v>0.10313</v>
-      </c>
-      <c r="BZ30" s="2">
-        <v>0.11279</v>
-      </c>
-      <c r="CA30" s="2">
-        <v>0.12282999999999999</v>
-      </c>
-      <c r="CB30" s="2">
-        <v>0.13284000000000001</v>
-      </c>
-      <c r="CC30" s="2">
-        <v>0.14274999999999999</v>
-      </c>
-      <c r="CD30" s="2">
-        <v>0.15257000000000001</v>
-      </c>
-      <c r="CE30" s="2">
-        <v>0.16238</v>
-      </c>
-      <c r="CF30" s="2">
-        <v>0.17224999999999999</v>
-      </c>
-      <c r="CG30" s="2">
-        <v>0.18229999999999999</v>
-      </c>
-      <c r="CH30" s="2">
-        <v>0.19245999999999999</v>
-      </c>
-      <c r="CI30" s="2">
-        <v>0.20326</v>
-      </c>
-      <c r="CJ30" s="2">
-        <v>0.21457000000000001</v>
-      </c>
-      <c r="CK30" s="2">
-        <v>0.22639000000000001</v>
-      </c>
-      <c r="CL30" s="2">
-        <v>0.23874000000000001</v>
-      </c>
-      <c r="CM30" s="2">
-        <v>0.25163999999999997</v>
-      </c>
-      <c r="CN30" s="2">
-        <v>0.26511000000000001</v>
-      </c>
-      <c r="CO30" s="2">
-        <v>0.27915000000000001</v>
-      </c>
-      <c r="CP30" s="2">
-        <v>0.29380000000000001</v>
-      </c>
-      <c r="CQ30" s="2">
-        <v>0.30906</v>
-      </c>
-      <c r="CR30" s="2">
-        <v>0.32495000000000002</v>
-      </c>
-      <c r="CS30" s="2">
-        <v>0.34149000000000002</v>
-      </c>
-      <c r="CT30" s="2">
-        <v>0.35869000000000001</v>
-      </c>
-      <c r="CU30" s="2">
-        <v>0.37658000000000003</v>
-      </c>
-      <c r="CV30" s="2">
-        <v>0.39515</v>
-      </c>
-      <c r="CW30" s="2">
-        <v>0.41443999999999998</v>
-      </c>
-      <c r="CX30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>1979</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3.2680000000000001E-2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4.6100000000000004E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.0200000000000001E-3</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1.7700000000000001E-3</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1.8799999999999999E-3</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1.64E-3</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1.4499999999999999E-3</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1.2899999999999999E-3</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1.1800000000000001E-3</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1.07E-3</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1.07E-3</v>
-      </c>
-      <c r="O31" s="2">
-        <v>1.16E-3</v>
-      </c>
-      <c r="P31" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="R31" s="2">
-        <v>1.83E-3</v>
-      </c>
-      <c r="S31" s="2">
-        <v>2.0600000000000002E-3</v>
-      </c>
-      <c r="T31" s="2">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="U31" s="2">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="V31" s="2">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="W31" s="2">
-        <v>2.47E-3</v>
-      </c>
-      <c r="X31" s="2">
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>2.5899999999999999E-3</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>2.63E-3</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>2.6800000000000001E-3</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>2.7200000000000002E-3</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>2.7699999999999999E-3</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>2.8300000000000001E-3</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>2.8600000000000001E-3</v>
-      </c>
-      <c r="AG31" s="2">
-        <v>2.98E-3</v>
-      </c>
-      <c r="AH31" s="2">
-        <v>3.15E-3</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>3.3899999999999998E-3</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>3.6900000000000001E-3</v>
-      </c>
-      <c r="AK31" s="2">
-        <v>4.1399999999999996E-3</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>4.5500000000000002E-3</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>4.9800000000000001E-3</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>5.4099999999999999E-3</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>5.8399999999999997E-3</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>6.2100000000000002E-3</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>6.6800000000000002E-3</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>7.2100000000000003E-3</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>7.8200000000000006E-3</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>8.5299999999999994E-3</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>9.3799999999999994E-3</v>
-      </c>
-      <c r="AV31" s="2">
-        <v>1.027E-2</v>
-      </c>
-      <c r="AW31" s="2">
-        <v>1.125E-2</v>
-      </c>
-      <c r="AX31" s="2">
-        <v>1.23E-2</v>
-      </c>
-      <c r="AY31" s="2">
-        <v>1.341E-2</v>
-      </c>
-      <c r="AZ31" s="2">
-        <v>1.465E-2</v>
-      </c>
-      <c r="BA31" s="2">
-        <v>1.5890000000000001E-2</v>
-      </c>
-      <c r="BB31" s="2">
-        <v>1.7170000000000001E-2</v>
-      </c>
-      <c r="BC31" s="2">
-        <v>1.8489999999999999E-2</v>
-      </c>
-      <c r="BD31" s="2">
-        <v>1.9859999999999999E-2</v>
-      </c>
-      <c r="BE31" s="2">
-        <v>2.1180000000000001E-2</v>
-      </c>
-      <c r="BF31" s="2">
-        <v>2.2769999999999999E-2</v>
-      </c>
-      <c r="BG31" s="2">
-        <v>2.4539999999999999E-2</v>
-      </c>
-      <c r="BH31" s="2">
-        <v>2.656E-2</v>
-      </c>
-      <c r="BI31" s="2">
-        <v>2.8840000000000001E-2</v>
-      </c>
-      <c r="BJ31" s="2">
-        <v>3.1530000000000002E-2</v>
-      </c>
-      <c r="BK31" s="2">
-        <v>3.4360000000000002E-2</v>
-      </c>
-      <c r="BL31" s="2">
-        <v>3.7440000000000001E-2</v>
-      </c>
-      <c r="BM31" s="2">
-        <v>4.0770000000000001E-2</v>
-      </c>
-      <c r="BN31" s="2">
-        <v>4.4319999999999998E-2</v>
-      </c>
-      <c r="BO31" s="2">
-        <v>4.8480000000000002E-2</v>
-      </c>
-      <c r="BP31" s="2">
-        <v>5.2380000000000003E-2</v>
-      </c>
-      <c r="BQ31" s="2">
-        <v>5.6370000000000003E-2</v>
-      </c>
-      <c r="BR31" s="2">
-        <v>6.0389999999999999E-2</v>
-      </c>
-      <c r="BS31" s="2">
-        <v>6.454E-2</v>
-      </c>
-      <c r="BT31" s="2">
-        <v>6.8659999999999999E-2</v>
-      </c>
-      <c r="BU31" s="2">
-        <v>7.3639999999999997E-2</v>
-      </c>
-      <c r="BV31" s="2">
-        <v>7.9430000000000001E-2</v>
-      </c>
-      <c r="BW31" s="2">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="BX31" s="2">
-        <v>9.4229999999999994E-2</v>
-      </c>
-      <c r="BY31" s="2">
-        <v>0.1031</v>
-      </c>
-      <c r="BZ31" s="2">
-        <v>0.11266</v>
-      </c>
-      <c r="CA31" s="2">
-        <v>0.12257999999999999</v>
-      </c>
-      <c r="CB31" s="2">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="CC31" s="2">
-        <v>0.14235</v>
-      </c>
-      <c r="CD31" s="2">
-        <v>0.15212999999999999</v>
-      </c>
-      <c r="CE31" s="2">
-        <v>0.16189999999999999</v>
-      </c>
-      <c r="CF31" s="2">
-        <v>0.17176</v>
-      </c>
-      <c r="CG31" s="2">
-        <v>0.18176999999999999</v>
-      </c>
-      <c r="CH31" s="2">
-        <v>0.19189999999999999</v>
-      </c>
-      <c r="CI31" s="2">
-        <v>0.20266999999999999</v>
-      </c>
-      <c r="CJ31" s="2">
-        <v>0.21393999999999999</v>
-      </c>
-      <c r="CK31" s="2">
-        <v>0.22572999999999999</v>
-      </c>
-      <c r="CL31" s="2">
-        <v>0.23805999999999999</v>
-      </c>
-      <c r="CM31" s="2">
-        <v>0.25092999999999999</v>
-      </c>
-      <c r="CN31" s="2">
-        <v>0.26436999999999999</v>
-      </c>
-      <c r="CO31" s="2">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="CP31" s="2">
-        <v>0.29302</v>
-      </c>
-      <c r="CQ31" s="2">
-        <v>0.30825999999999998</v>
-      </c>
-      <c r="CR31" s="2">
-        <v>0.32413999999999998</v>
-      </c>
-      <c r="CS31" s="2">
-        <v>0.34066999999999997</v>
-      </c>
-      <c r="CT31" s="2">
-        <v>0.35787000000000002</v>
-      </c>
-      <c r="CU31" s="2">
-        <v>0.37574999999999997</v>
-      </c>
-      <c r="CV31" s="2">
-        <v>0.39433000000000001</v>
-      </c>
-      <c r="CW31" s="2">
-        <v>0.41363</v>
-      </c>
-      <c r="CX31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>1980</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3.0450000000000001E-2</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.91E-3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1.7799999999999999E-3</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1.56E-3</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1.3699999999999999E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="L32" s="2">
-        <v>9.8999999999999999E-4</v>
-      </c>
-      <c r="M32" s="2">
-        <v>9.7000000000000005E-4</v>
-      </c>
-      <c r="N32" s="2">
-        <v>9.8999999999999999E-4</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1.07E-3</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>1.5100000000000001E-3</v>
-      </c>
-      <c r="R32" s="2">
-        <v>1.75E-3</v>
-      </c>
-      <c r="S32" s="2">
-        <v>1.98E-3</v>
-      </c>
-      <c r="T32" s="2">
-        <v>2.16E-3</v>
-      </c>
-      <c r="U32" s="2">
-        <v>2.2899999999999999E-3</v>
-      </c>
-      <c r="V32" s="2">
-        <v>2.33E-3</v>
-      </c>
-      <c r="W32" s="2">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="X32" s="2">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>2.4399999999999999E-3</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>2.48E-3</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>2.5200000000000001E-3</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>2.5699999999999998E-3</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>2.6199999999999999E-3</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>2.6800000000000001E-3</v>
-      </c>
-      <c r="AE32" s="2">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="AF32" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="AG32" s="2">
-        <v>2.9199999999999999E-3</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>3.0899999999999999E-3</v>
-      </c>
-      <c r="AI32" s="2">
-        <v>3.31E-3</v>
-      </c>
-      <c r="AJ32" s="2">
-        <v>3.5899999999999999E-3</v>
-      </c>
-      <c r="AK32" s="2">
-        <v>3.98E-3</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>4.3600000000000002E-3</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>4.7800000000000004E-3</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="AO32" s="2">
+      <c r="AO32" s="5">
         <v>5.6899999999999997E-3</v>
       </c>
-      <c r="AP32" s="2">
+      <c r="AP32" s="5">
         <v>6.1599999999999997E-3</v>
       </c>
-      <c r="AQ32" s="2">
+      <c r="AQ32" s="5">
         <v>6.6899999999999998E-3</v>
       </c>
-      <c r="AR32" s="2">
+      <c r="AR32" s="5">
         <v>7.26E-3</v>
       </c>
-      <c r="AS32" s="2">
+      <c r="AS32" s="5">
         <v>7.8899999999999994E-3</v>
       </c>
-      <c r="AT32" s="2">
+      <c r="AT32" s="5">
         <v>8.5699999999999995E-3</v>
       </c>
-      <c r="AU32" s="2">
+      <c r="AU32" s="5">
         <v>9.3399999999999993E-3</v>
       </c>
-      <c r="AV32" s="2">
+      <c r="AV32" s="5">
         <v>1.0160000000000001E-2</v>
       </c>
-      <c r="AW32" s="2">
+      <c r="AW32" s="5">
         <v>1.1050000000000001E-2</v>
       </c>
-      <c r="AX32" s="2">
+      <c r="AX32" s="5">
         <v>1.201E-2</v>
       </c>
-      <c r="AY32" s="2">
+      <c r="AY32" s="5">
         <v>1.304E-2</v>
       </c>
-      <c r="AZ32" s="2">
+      <c r="AZ32" s="5">
         <v>1.418E-2</v>
       </c>
-      <c r="BA32" s="2">
+      <c r="BA32" s="5">
         <v>1.5350000000000001E-2</v>
       </c>
-      <c r="BB32" s="2">
+      <c r="BB32" s="5">
         <v>1.6580000000000001E-2</v>
       </c>
-      <c r="BC32" s="2">
+      <c r="BC32" s="5">
         <v>1.787E-2</v>
       </c>
-      <c r="BD32" s="2">
+      <c r="BD32" s="5">
         <v>1.924E-2</v>
       </c>
-      <c r="BE32" s="2">
+      <c r="BE32" s="5">
         <v>2.061E-2</v>
       </c>
-      <c r="BF32" s="2">
+      <c r="BF32" s="5">
         <v>2.2210000000000001E-2</v>
       </c>
-      <c r="BG32" s="2">
+      <c r="BG32" s="5">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="BH32" s="2">
+      <c r="BH32" s="5">
         <v>2.598E-2</v>
       </c>
-      <c r="BI32" s="2">
+      <c r="BI32" s="5">
         <v>2.8209999999999999E-2</v>
       </c>
-      <c r="BJ32" s="2">
+      <c r="BJ32" s="5">
         <v>3.082E-2</v>
       </c>
-      <c r="BK32" s="2">
+      <c r="BK32" s="5">
         <v>3.3550000000000003E-2</v>
       </c>
-      <c r="BL32" s="2">
+      <c r="BL32" s="5">
         <v>3.653E-2</v>
       </c>
-      <c r="BM32" s="2">
+      <c r="BM32" s="5">
         <v>3.9739999999999998E-2</v>
       </c>
-      <c r="BN32" s="2">
+      <c r="BN32" s="5">
         <v>4.3180000000000003E-2</v>
       </c>
-      <c r="BO32" s="2">
+      <c r="BO32" s="5">
         <v>4.7140000000000001E-2</v>
       </c>
-      <c r="BP32" s="2">
+      <c r="BP32" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="BQ32" s="2">
+      <c r="BQ32" s="5">
         <v>5.5010000000000003E-2</v>
       </c>
-      <c r="BR32" s="2">
+      <c r="BR32" s="5">
         <v>5.917E-2</v>
       </c>
-      <c r="BS32" s="2">
+      <c r="BS32" s="5">
         <v>6.3560000000000005E-2</v>
       </c>
-      <c r="BT32" s="2">
+      <c r="BT32" s="5">
         <v>6.8190000000000001E-2</v>
       </c>
-      <c r="BU32" s="2">
+      <c r="BU32" s="5">
         <v>7.3469999999999994E-2</v>
       </c>
-      <c r="BV32" s="2">
+      <c r="BV32" s="5">
         <v>7.9509999999999997E-2</v>
       </c>
-      <c r="BW32" s="2">
+      <c r="BW32" s="5">
         <v>8.652E-2</v>
       </c>
-      <c r="BX32" s="2">
+      <c r="BX32" s="5">
         <v>9.4369999999999996E-2</v>
       </c>
-      <c r="BY32" s="2">
+      <c r="BY32" s="5">
         <v>0.10315000000000001</v>
       </c>
-      <c r="BZ32" s="2">
+      <c r="BZ32" s="5">
         <v>0.11257</v>
       </c>
-      <c r="CA32" s="2">
+      <c r="CA32" s="5">
         <v>0.12234</v>
       </c>
-      <c r="CB32" s="2">
+      <c r="CB32" s="5">
         <v>0.13214000000000001</v>
       </c>
-      <c r="CC32" s="2">
+      <c r="CC32" s="5">
         <v>0.1419</v>
       </c>
-      <c r="CD32" s="2">
+      <c r="CD32" s="5">
         <v>0.15165000000000001</v>
       </c>
-      <c r="CE32" s="2">
+      <c r="CE32" s="5">
         <v>0.16141</v>
       </c>
-      <c r="CF32" s="2">
+      <c r="CF32" s="5">
         <v>0.17126</v>
       </c>
-      <c r="CG32" s="2">
+      <c r="CG32" s="5">
         <v>0.18124999999999999</v>
       </c>
-      <c r="CH32" s="2">
+      <c r="CH32" s="5">
         <v>0.19134999999999999</v>
       </c>
-      <c r="CI32" s="2">
+      <c r="CI32" s="5">
         <v>0.2021</v>
       </c>
-      <c r="CJ32" s="2">
+      <c r="CJ32" s="5">
         <v>0.21335000000000001</v>
       </c>
-      <c r="CK32" s="2">
+      <c r="CK32" s="5">
         <v>0.22511999999999999</v>
       </c>
-      <c r="CL32" s="2">
+      <c r="CL32" s="5">
         <v>0.23741999999999999</v>
       </c>
-      <c r="CM32" s="2">
+      <c r="CM32" s="5">
         <v>0.25028</v>
       </c>
-      <c r="CN32" s="2">
+      <c r="CN32" s="5">
         <v>0.26369999999999999</v>
       </c>
-      <c r="CO32" s="2">
+      <c r="CO32" s="5">
         <v>0.27771000000000001</v>
       </c>
-      <c r="CP32" s="2">
+      <c r="CP32" s="5">
         <v>0.29232000000000002</v>
       </c>
-      <c r="CQ32" s="2">
+      <c r="CQ32" s="5">
         <v>0.30754999999999999</v>
       </c>
-      <c r="CR32" s="2">
+      <c r="CR32" s="5">
         <v>0.32341999999999999</v>
       </c>
-      <c r="CS32" s="2">
+      <c r="CS32" s="5">
         <v>0.33994999999999997</v>
       </c>
-      <c r="CT32" s="2">
+      <c r="CT32" s="5">
         <v>0.35715000000000002</v>
       </c>
-      <c r="CU32" s="2">
+      <c r="CU32" s="5">
         <v>0.37503999999999998</v>
       </c>
-      <c r="CV32" s="2">
+      <c r="CV32" s="5">
         <v>0.39362999999999998</v>
       </c>
-      <c r="CW32" s="2">
+      <c r="CW32" s="5">
         <v>0.41293999999999997</v>
       </c>
-      <c r="CX32" s="2">
+      <c r="CX32" s="5">
         <v>1</v>
       </c>
     </row>
